--- a/products.xlsx
+++ b/products.xlsx
@@ -15,12 +15,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
   <si>
     <t>prc</t>
   </si>
   <si>
-    <t>stk</t>
+    <t>Nokia Asha 302 White</t>
+  </si>
+  <si>
+    <t>nokia-asha-302-white</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Alcatel DS 10.60 Dual SIM</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-alcatel-ds-1060-dual-sim</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly Ezzy Flip Dual Sim Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ezzy-flip-dual-sim-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly EZZY Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ezzy-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E210 Сhrome</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e210-shrome</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E200 Duos Metalic</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e200-duos-metalic</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E190 Duos Wi-Fi Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e190-duos-wi-fi-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E171 Duos High Glossy Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e171-duos-high-glossy-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E154 Dual Sim Silver</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e154-dual-sim-silver</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E154 Dual Sim Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e154-dual-sim-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E145 TV Dual Sim White</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e145-tv-dual-sim-white</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E145 TV Dual Sim Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e145-tv-dual-sim-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E141 TV Dual SIM White</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e141-tv-dual-sim-white</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E141 TV Dual SIM Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e141-tv-dual-sim-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E133 Duos White</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e133-duos-white</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly DS103D Duos Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ds103d-duos-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly B300 Duos Grey</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-b300-duos-grey</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly DS103 Duos Grey</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ds103-duos-grey</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E185 Black Bronze</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e185-black-bronze</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E176 Duos Silver</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e176-duos-silver</t>
   </si>
 </sst>
 </file>
@@ -359,7 +482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -367,172 +490,235 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>1010</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>100</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>100</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>100</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>100</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>55</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
         <v>55</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>100</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>100</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>100</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>100</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>100</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>100</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
   <si>
     <t>url</t>
   </si>
@@ -26,124 +23,742 @@
     <t>prc</t>
   </si>
   <si>
-    <t>Nokia Asha 302 White</t>
+    <t>oldprc</t>
+  </si>
+  <si>
+    <t>vkladysh-dlia-spalnogo-meshka-easy-camp-cotton-travel-sheet-mummy</t>
+  </si>
+  <si>
+    <t>vkladysh-dlia-spalnogo-meshka-easy-camp-cotton-travel-sheet-rectangular</t>
+  </si>
+  <si>
+    <t>spalnyi-meshok-easy-camp-atlanta-plus</t>
+  </si>
+  <si>
+    <t>spalnyi-meshok-easy-camp-chakra-black</t>
+  </si>
+  <si>
+    <t>spalnyi-meshok-easy-camp-chakra-pink</t>
+  </si>
+  <si>
+    <t>kolesnyi-pogruzchik-na-radioupravlenii</t>
+  </si>
+  <si>
+    <t>gusenichnii-kran-na-radiokeruvanni</t>
+  </si>
+  <si>
+    <t>karernii-samoskid-na-radiokeruvanni</t>
+  </si>
+  <si>
+    <t>mashina-z-pidiomnim-kranom-na-radiokeruvanni</t>
+  </si>
+  <si>
+    <t>igrashka-poprigunchik-tiny-smarts-jumpy</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-as1120wo</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-as820br</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-as820ckbk</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-al790ms</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-al820ckbw</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-as1120br</t>
+  </si>
+  <si>
+    <t>3d-led-televizor-samsung-ue65es8007uxua</t>
+  </si>
+  <si>
+    <t>3d-led-televizor-samsung-ue50es6907-uxua</t>
+  </si>
+  <si>
+    <t>televizory-kakoi-vybrat</t>
+  </si>
+  <si>
+    <t>3d-ochkii-besprovodnoe-ustroistvo-samsungssg-4100gb-ru</t>
+  </si>
+  <si>
+    <t>samsung-domashni-kinoteatr-ht-e330k-ru</t>
+  </si>
+  <si>
+    <t>plazmennyi-televizor-samsung-ps-51e497</t>
+  </si>
+  <si>
+    <t>zhk-televizor-bbk-lem2249hd-black</t>
+  </si>
+  <si>
+    <t>mp3-mp4-pleer-apple-ipod-touch-4-gen-8-gb</t>
+  </si>
+  <si>
+    <t>mp3-mp4-pleer-texet-t-979hd-4gb</t>
+  </si>
+  <si>
+    <t>mp3-mp4-pleer-sony-walkman-nwz-b172-2gb-black</t>
+  </si>
+  <si>
+    <t>assistant-am-09404-4gb</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e141-tv-dual-sim-black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ezzy-flip-dual-sim-black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e141-tv-dual-sim-white</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e145-tv-dual-sim-black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e145-tv-dual-sim-white</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-alcatel-ds-1060-dual-sim</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e154-dual-sim-black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ds103d-duos-black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e154-dual-sim-silver</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-b300-duos-grey</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e171-duos-high-glossy-black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ds103-duos-grey</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e190-duos-wi-fi-black</t>
   </si>
   <si>
     <t>nokia-asha-302-white</t>
   </si>
   <si>
-    <t>Мобильный телефон Alcatel DS 10.60 Dual SIM</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-alcatel-ds-1060-dual-sim</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly Ezzy Flip Dual Sim Black</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-ezzy-flip-dual-sim-black</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly EZZY Black</t>
+    <t>mobilnyi-telefon-fly-e185-black-bronze</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e200-duos-metalic</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e176-duos-silver</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e210-shrome</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e133-duos-white</t>
   </si>
   <si>
     <t>mobilnyi-telefon-fly-ezzy-black</t>
   </si>
   <si>
-    <t>Мобильный телефон Fly E210 Сhrome</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e210-shrome</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E200 Duos Metalic</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e200-duos-metalic</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E190 Duos Wi-Fi Black</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e190-duos-wi-fi-black</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E171 Duos High Glossy Black</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e171-duos-high-glossy-black</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E154 Dual Sim Silver</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e154-dual-sim-silver</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E154 Dual Sim Black</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e154-dual-sim-black</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E145 TV Dual Sim White</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e145-tv-dual-sim-white</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E145 TV Dual Sim Black</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e145-tv-dual-sim-black</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E141 TV Dual SIM White</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e141-tv-dual-sim-white</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E141 TV Dual SIM Black</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e141-tv-dual-sim-black</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E133 Duos White</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e133-duos-white</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly DS103D Duos Black</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-ds103d-duos-black</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly B300 Duos Grey</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-b300-duos-grey</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly DS103 Duos Grey</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-ds103-duos-grey</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E185 Black Bronze</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e185-black-bronze</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Fly E176 Duos Silver</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-fly-e176-duos-silver</t>
+    <t>mobilnyi-telefon-samsung-galaxy-grand-duos-i9082-elegant-white</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-galaxy-ace-duos-zka-black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-sony-xperia-z-c6603-black</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-tiz-galaxy-ace-duos-romantic-pink-la-fleur</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-sony-xperia-v-lt25i-black</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-zia-galaxy-ace-duos-pink</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-lg-nexus-4-e960-black</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-zya-galaxy-ace-duos-yellow</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6810-galaxy-fame-metallic-blue</t>
+  </si>
+  <si>
+    <t>htc-one-sv-white</t>
+  </si>
+  <si>
+    <t>nokia-lumia-920-white</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6810-galaxy-fame-pure-white</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7500-aba-galaxy-ace-plus-dark-blue</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6500-galaxy-mini-2-rwd-ceramic-white</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7500-cwa-galaxy-ace-plus-chic-white</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6500-galaxy-mini-2-zyd-yellow</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7530-omnia-m-eaa-deep-grey</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-aka-galaxy-ace-duos-metallic-black</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7562-galaxy-s-duos-zka-black</t>
+  </si>
+  <si>
+    <t>Mobilnyi-telefon-sony-xperia-v-lt25i-black111</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-cwa-galaxy-ace-duos-shic-white</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-nokia-bluetooth-headset-bh-104-black</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-bh-112-black</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-nokia-headset-bluetooth-bh-110-black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-bhm1100-black</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-nokia-headset-bluetooth-bh-110-white</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-samsung-awep460ebegsek-black-bluetooth-headset</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-bhm-1200-black</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-samsung-bhm1200ebegsek-black</t>
+  </si>
+  <si>
+    <t>bluetooth-garnitura-nokia-bh-806</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-bh-108-ice</t>
+  </si>
+  <si>
+    <t>garnitura-jabra-easy-call</t>
+  </si>
+  <si>
+    <t>garnitura-jabra-bt2045</t>
+  </si>
+  <si>
+    <t>garnitura-bluetooth-nokia-bh-111-black</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-bh-108</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-jabra-bluetooth-headset-bt-2015</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-bh-505</t>
+  </si>
+  <si>
+    <t>garnitura-jabra-easygo</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-jabra-bluetooth-headset-bt-2070</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-bh-220-black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs60annbecstd-black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-p1000-ehs-60-black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs60annwecstd-white</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-hs-47-vakuumnaia</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs60ennbecstd-black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-bhs6000-ebecsek</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-wh-701</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs60ennwecstd-white</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-wh-205-stereo</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs62asnkecstd-blue</t>
+  </si>
+  <si>
+    <t>garnitura-htc-rc-e190-black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs62asnpecstd-pink</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs62asnwecstd-white</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs63asnbecstd-black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs64asfwecstd-white</t>
+  </si>
+  <si>
+    <t>garnitura-htc-rc-e240-black</t>
+  </si>
+  <si>
+    <t>garnitura-htc-rc-e240-white</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs62asn-white</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-samsung-gt-s5610-msa-metallic-silver</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb-k1a2ebegstd-black</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb-k1a2ewegstd-white</t>
+  </si>
+  <si>
+    <t>akkumuliator-k-telefonu-nokia-bl-4c</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb-l1f2hvucstd-black-i9250</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb-l1g6llucstd-i9300-black</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb595675lucstd-n7100-black</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb615268vucstd-black-n7000</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eta-u90ebegstd-n7100-black</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eta-u90ewegstd-n7100-white</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eta0u10ebecstd-black</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eta0u80ebegstd-black-n7000</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-ufo-ec-004-5v-2-adaptora-nokia-kit</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-podstavka-samsung-edd-d100wegstd-tab-tab2-desktop-dock-white</t>
+  </si>
+  <si>
+    <t>podstavka-s-zariadnym-ustroistvom-samsung-ebh1a2usbecstd-black</t>
+  </si>
+  <si>
+    <t>podstavka-derzhatel-samsung-eb-h1j9vnegstd-n7100-white-akkumuliator</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-nokia-ac-4e</t>
+  </si>
+  <si>
+    <t>vneshnii-akkumuliator-samsung-eeb-ei1cwegstd-white</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eca-u16cbegstd-n7000-black</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eta-p11ebegstd-galaxy-p3100-p5100-n8000-black</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsd-8-gb-adapter-i-usb-kadtrider</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-8-gb-class-10-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-16-gb-class-10-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-8-gb-class-10-adapter</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-16-gb-class-10-adapter</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-8-gb-class-4-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-16-gb-class-10-uhs-i-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-16-gb-class-4-adapter</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-32-gb-class-10-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>karta-pamiati-transcend-microsdhc-16-gb-class-10-uhs-i-ultimate-x600-adapter</t>
+  </si>
+  <si>
+    <t>karta-pamiati-kingston-microsd-16-gb-sdc4-16gb</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-32-gb-class-10-adapter</t>
+  </si>
+  <si>
+    <t>karta-pamiati-transcend-microsdhc-32-gb-class-10-uhs-i-ultimate-x600-adapter</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-32-gb-class-10-uhs-i-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsd-2-gb-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-32-gb-class-4-adapter</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsd-2-gb-retail-9-adapter</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-4-gb-class-4-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsd-4-gb-adapter-i-usb-kadtrider</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-4-gb-class-4-retail-9-adapter</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-i9300-matovaia</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-p840-dlia-desire</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-sp-p910</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-dlia-samsung-i9300</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-p730-dlia-one-x</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-i8160</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-drobak-sony-xperia-j-st26</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-s7562</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-drobak-samsung-s7562</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-wave-y-s5380</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-drobak-samsung-i9070</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-n7100</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-etc-p1g5cegstd-p3100-p3110</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-nokia-asha-311</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-nokia-302</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-sp-p900-dlia-one-sv-2sht</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-screen-ward-samsung-s6102</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-sp-p890-dlia-wp8s-2sht</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-screen-ward-samsung-s5660</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-p870-dlia-wp-8x</t>
+  </si>
+  <si>
+    <t>mp3-mp4-pleer-apple-ipod-touch-5g-32gb-black</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-setevoi-adapter-apple-mb707-white</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-volume-4-gb-black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-2-gb-red</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-volume-4-gb-white</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-4-gb-black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-volume-8-gb-black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-4-gb-blue</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-volume-8-gb-white</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-4-gb-red</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-iriver-e-40-4-gb-dark-gray</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-8-gb-black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-8-gb-red</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-style-4-gb</t>
+  </si>
+  <si>
+    <t>mp3-mp4-pleera-texet-t-930hd-8gb</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-basic-4-gb-blue</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-style-8-gb</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-basic-4-gb-white</t>
+  </si>
+  <si>
+    <t>mr3-flesh-pleer-ergo-zen-little-2-gb-blue</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-basic-8-gb-black</t>
+  </si>
+  <si>
+    <t>mr3-flesh-pleer-ergo-zen-clip-2-gb-black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-2-gb-black</t>
+  </si>
+  <si>
+    <t>garnitura-vnutrikanalnogo-tipa-ergo-vm-901-black</t>
+  </si>
+  <si>
+    <t>naushniki-koss-porta-pro</t>
+  </si>
+  <si>
+    <t>multimediinaia-garnitura-ergo-vm-280-black</t>
+  </si>
+  <si>
+    <t>naushniki-koss-kebdz-twinz-ke7</t>
+  </si>
+  <si>
+    <t>multimediinaia-garnitura-ergo-vm-280-green</t>
+  </si>
+  <si>
+    <t>naushniki-sony-mdr-ex10lp-black</t>
+  </si>
+  <si>
+    <t>nabor-zapasnyh-nakladnyh-ambushiur-koss-porta-sporta-pro6-sht</t>
+  </si>
+  <si>
+    <t>naushniki-sennheiser-ie-8i</t>
+  </si>
+  <si>
+    <t>naushniki-panasonic-rp-hje120e-k</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-ear-vt11</t>
+  </si>
+  <si>
+    <t>gps-pioneer-e-800</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-ear-vt12</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-vd-290-white</t>
+  </si>
+  <si>
+    <t>naushniki-jvc-ha-s200-b</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-vd-390-gold</t>
+  </si>
+  <si>
+    <t>naushnik-a4tech-mk-690-v</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-vd-390-grey</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-vd-390-red</t>
+  </si>
+  <si>
+    <t>naushniki-panasonic-rp-hje120e-g-green</t>
+  </si>
+  <si>
+    <t>naushniki-koss-the-plug</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g2nlecstd-light-blue</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1g6swecstd-i9300-white</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g2nrecstd-garnet-red</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1g6wbecstd-blue</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g5ngecstd-p3100-p3110-black</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1g6wpecstd-i9300-pink</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g5sgecstd-p3100-p3110-dark-gray</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1g6wwecstd-white</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g6fbecstd-i9300-pebble-blue</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1h8ngecstd-p5100-p5110</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g6fgecstd-i9300-titanium-silver</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1j9bbegstd-n7100-black</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g6flecstd-i9300-light-blue</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1j9bpegstd-n7100-pink</t>
+  </si>
+  <si>
+    <t>chehol-futliar-samsung-efc-1j9ldegstd-n7100-dark-brown</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1j9bwegstd-n7100-white</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g2naecstd-amber-brown</t>
+  </si>
+  <si>
+    <t>chehol-htc-hc-v841</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g2ngecstd-dark-gray</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1g6ppecstd-i9300-pink</t>
+  </si>
+  <si>
+    <t>podstavka-derzhatel-samsung-ebh-1e1sbegstd-black</t>
+  </si>
+  <si>
+    <t>stilus-samsung-et-s100ebegstd-black</t>
+  </si>
+  <si>
+    <t>multimediinyi-modul-htc-dg-h200</t>
+  </si>
+  <si>
+    <t>stilus-samsung-etc-s10csegstd-i9300-silver</t>
+  </si>
+  <si>
+    <t>ctilus-i-ruchka-chehol-samsung-et-s110ebegstd-black</t>
+  </si>
+  <si>
+    <t>stilus-samsung-etc-s1j9segstd-n7100-dark-silver</t>
+  </si>
+  <si>
+    <t>usb-adapter-samsung-epl-1pl0begstd-black</t>
+  </si>
+  <si>
+    <t>stilus-samsung-etc-s1j9wegstd-n7100-white</t>
+  </si>
+  <si>
+    <t>data-kabel-samsung-ecc1dp0ubecstd-black</t>
+  </si>
+  <si>
+    <t>universalnaia-podstavka-samsung-edd-d100begstd-black</t>
+  </si>
+  <si>
+    <t>dok-stantsiia-samsung-edd-d1e1begstd-black</t>
+  </si>
+  <si>
+    <t>universalnaia-podstavka-samsung-edd-d200begstd-black</t>
+  </si>
+  <si>
+    <t>dok-stantsiia-samsung-edd-h1f2begstd-black-i9250</t>
+  </si>
+  <si>
+    <t>kabel-dlia-podkliucheniia-k-televizoru-samsung-epl-3fhubegstd-black</t>
+  </si>
+  <si>
+    <t>klaviatura-samsung-ekd-k11rwegser-p3100-p3110-black</t>
+  </si>
+  <si>
+    <t>klaviatura-samsung-ekd-k12rwegser-p5100-p5110-black</t>
+  </si>
+  <si>
+    <t>podstavka-samsung-edd-d1c9begstd-black</t>
+  </si>
+  <si>
+    <t>usb-kabel-htc-dc-m410</t>
   </si>
 </sst>
 </file>
@@ -482,7 +1097,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,220 +1120,2805 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>159</v>
       </c>
       <c r="C2">
-        <v>1010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>159</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>659</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>299</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>299</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>113</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>650</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1200</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>599</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>2426</v>
       </c>
       <c r="C12">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>2426</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>1842</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>2076</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1862</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>1842</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>32988</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>45424</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>2065</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>16780</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>1762</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>765</v>
+      </c>
+      <c r="C21">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>22452</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>6913</v>
+      </c>
+      <c r="C23">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>196</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>1150</v>
+      </c>
+      <c r="C25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>398</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>475</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>228</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39">
+        <v>100</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="C21">
-        <v>100</v>
+      <c r="B41">
+        <v>100</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42">
+        <v>1010</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>100</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>100</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>3629</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>210</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>7595</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>210</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>4999</v>
+      </c>
+      <c r="C53">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>210</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>5295</v>
+      </c>
+      <c r="C55">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>210</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>215</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>3562</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>5445</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>215</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>212</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>156</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>285</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>156</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>285</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>100</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>209</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>199</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>188</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>21.6</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>100</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>95</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>36.9</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>195</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>299</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>155</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>100</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>487</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>302</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>100</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>595</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>45</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>100</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>45</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>100</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>899</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>60</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>45</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>102</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>159</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>100</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>180</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>100</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>100</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>99</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>100</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>100</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>49</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>100</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>100</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>100</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>100</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>100</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>100</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>100</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>100</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>100</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>39</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>100</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>100</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>100</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>100</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>9</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>100</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>100</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>15</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>12</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>29</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>100</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>135</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>100</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>100</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>31</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143">
+        <v>100</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145">
+        <v>100</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146">
+        <v>100</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148">
+        <v>190</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>100</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150">
+        <v>50</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152">
+        <v>40</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153">
+        <v>60</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154">
+        <v>50</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155">
+        <v>65</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156">
+        <v>45</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157">
+        <v>63</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158">
+        <v>149</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159">
+        <v>100</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160">
+        <v>69</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161">
+        <v>43</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162">
+        <v>128</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164">
+        <v>64</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165">
+        <v>45</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>50</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167">
+        <v>2787</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>2786</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>69</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>2795</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>2790</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>168</v>
+      </c>
+      <c r="B172">
+        <v>2793</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173">
+        <v>30</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <v>100</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175">
+        <v>30</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176">
+        <v>100</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>174</v>
+      </c>
+      <c r="B177">
+        <v>36</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>175</v>
+      </c>
+      <c r="B178">
+        <v>100</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>176</v>
+      </c>
+      <c r="B179">
+        <v>36</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>177</v>
+      </c>
+      <c r="B180">
+        <v>100</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181">
+        <v>100</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>179</v>
+      </c>
+      <c r="B182">
+        <v>40</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>180</v>
+      </c>
+      <c r="B183">
+        <v>40</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184">
+        <v>100</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>182</v>
+      </c>
+      <c r="B185">
+        <v>539</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186">
+        <v>25</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>184</v>
+      </c>
+      <c r="B187">
+        <v>100</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188">
+        <v>25</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>186</v>
+      </c>
+      <c r="B189">
+        <v>100</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>187</v>
+      </c>
+      <c r="B190">
+        <v>30</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>188</v>
+      </c>
+      <c r="B191">
+        <v>100</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>189</v>
+      </c>
+      <c r="B192">
+        <v>100</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>190</v>
+      </c>
+      <c r="B193">
+        <v>10</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>191</v>
+      </c>
+      <c r="B194">
+        <v>35</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>192</v>
+      </c>
+      <c r="B195">
+        <v>15</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>193</v>
+      </c>
+      <c r="B196">
+        <v>8.89</v>
+      </c>
+      <c r="C196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>194</v>
+      </c>
+      <c r="B197">
+        <v>15</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>195</v>
+      </c>
+      <c r="B198">
+        <v>15</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>196</v>
+      </c>
+      <c r="B199">
+        <v>100</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>195</v>
+      </c>
+      <c r="B200">
+        <v>14</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>197</v>
+      </c>
+      <c r="B201">
+        <v>100</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>198</v>
+      </c>
+      <c r="B202">
+        <v>10</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>199</v>
+      </c>
+      <c r="B203">
+        <v>8</v>
+      </c>
+      <c r="C203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>198</v>
+      </c>
+      <c r="B204">
+        <v>10</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>200</v>
+      </c>
+      <c r="B205">
+        <v>15</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>201</v>
+      </c>
+      <c r="B206">
+        <v>9</v>
+      </c>
+      <c r="C206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>198</v>
+      </c>
+      <c r="B207">
+        <v>10</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>202</v>
+      </c>
+      <c r="B208">
+        <v>15</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>203</v>
+      </c>
+      <c r="B209">
+        <v>100</v>
+      </c>
+      <c r="C209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>198</v>
+      </c>
+      <c r="B210">
+        <v>10</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>204</v>
+      </c>
+      <c r="B211">
+        <v>15</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>191</v>
+      </c>
+      <c r="B212">
+        <v>52</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>205</v>
+      </c>
+      <c r="B213">
+        <v>9</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214">
+        <v>15</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>198</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>207</v>
+      </c>
+      <c r="B216">
+        <v>15</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>208</v>
+      </c>
+      <c r="B217">
+        <v>74</v>
+      </c>
+      <c r="C217">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>209</v>
+      </c>
+      <c r="B218">
+        <v>16.85</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>210</v>
+      </c>
+      <c r="B219">
+        <v>100</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>211</v>
+      </c>
+      <c r="B220">
+        <v>7</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>212</v>
+      </c>
+      <c r="B221">
+        <v>100</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>213</v>
+      </c>
+      <c r="B222">
+        <v>100</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>214</v>
+      </c>
+      <c r="B223">
+        <v>100</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>215</v>
+      </c>
+      <c r="B224">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>216</v>
+      </c>
+      <c r="B225">
+        <v>100</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>217</v>
+      </c>
+      <c r="B226">
+        <v>100</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>218</v>
+      </c>
+      <c r="B227">
+        <v>100</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>219</v>
+      </c>
+      <c r="B228">
+        <v>100</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>220</v>
+      </c>
+      <c r="B229">
+        <v>100</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>221</v>
+      </c>
+      <c r="B230">
+        <v>100</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>222</v>
+      </c>
+      <c r="B231">
+        <v>100</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>223</v>
+      </c>
+      <c r="B232">
+        <v>100</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>224</v>
+      </c>
+      <c r="B233">
+        <v>100</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>225</v>
+      </c>
+      <c r="B234">
+        <v>100</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>226</v>
+      </c>
+      <c r="B235">
+        <v>100</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>227</v>
+      </c>
+      <c r="B236">
+        <v>100</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>228</v>
+      </c>
+      <c r="B237">
+        <v>100</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>229</v>
+      </c>
+      <c r="B238">
+        <v>7</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>230</v>
+      </c>
+      <c r="B239">
+        <v>100</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>231</v>
+      </c>
+      <c r="B240">
+        <v>100</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>232</v>
+      </c>
+      <c r="B241">
+        <v>100</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>233</v>
+      </c>
+      <c r="B242">
+        <v>100</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>234</v>
+      </c>
+      <c r="B243">
+        <v>100</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>235</v>
+      </c>
+      <c r="B244">
+        <v>100</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>236</v>
+      </c>
+      <c r="B245">
+        <v>100</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>237</v>
+      </c>
+      <c r="B246">
+        <v>100</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>238</v>
+      </c>
+      <c r="B247">
+        <v>100</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>239</v>
+      </c>
+      <c r="B248">
+        <v>100</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>240</v>
+      </c>
+      <c r="B249">
+        <v>100</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>241</v>
+      </c>
+      <c r="B250">
+        <v>100</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>242</v>
+      </c>
+      <c r="B251">
+        <v>100</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>243</v>
+      </c>
+      <c r="B252">
+        <v>100</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>244</v>
+      </c>
+      <c r="B253">
+        <v>100</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>245</v>
+      </c>
+      <c r="B254">
+        <v>100</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>246</v>
+      </c>
+      <c r="B255">
+        <v>100</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>247</v>
+      </c>
+      <c r="B256">
+        <v>100</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -47,7 +47,7 @@
     <t>Телефония, МР3-плееры, GPS/Телефоны/Смартфоны</t>
   </si>
   <si>
-    <t>13ef8c84f2969752c106ceec728b6bbd.png|857c16ff9d701574808883f8048cf943.png|39d129e66a7b982a265787e27654f3a2.png</t>
+    <t>d5217ffb5bf6531b97c0d4f5d0e57bb1.jpg|916b7d38c984293c945c6e9cba8fc9f6.jpg||13ef8c84f2969752c106ceec728b6bbd.png|857c16ff9d701574808883f8048cf943.png|39d129e66a7b982a265787e27654f3a2.png</t>
   </si>
   <si>
     <t>Мобильный телефон Samsung Galaxy Grand Duos I9082 elegant white</t>

--- a/products.xlsx
+++ b/products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>name</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Телефония, МР3-плееры, GPS/Телефоны/Смартфоны</t>
   </si>
   <si>
-    <t>d5217ffb5bf6531b97c0d4f5d0e57bb1.jpg|916b7d38c984293c945c6e9cba8fc9f6.jpg||13ef8c84f2969752c106ceec728b6bbd.png|857c16ff9d701574808883f8048cf943.png|39d129e66a7b982a265787e27654f3a2.png</t>
+    <t>3d2e0199b9008d5490a9759149e9f032.jpg|656912f86593ecab2e1ce2c4a2f79caa.jpg</t>
   </si>
   <si>
     <t>Мобильный телефон Samsung Galaxy Grand Duos I9082 elegant white</t>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>smartfon-samsung-gt-s6500-galaxy-mini-2-zyd-yellow</t>
-  </si>
-  <si>
-    <t>f7879e823e42280646cb0ce393346161.jpg|7424606961e263a97abb77ed7fb96031.jpg</t>
   </si>
   <si>
     <t>Смартфон Samsung GT-S6500 Galaxy Mini 2 RWD Ceramic White</t>
@@ -551,7 +548,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>3562</v>
+        <v>4000</v>
       </c>
       <c r="D2">
         <v>20011</v>
@@ -930,16 +927,14 @@
       <c r="F20" t="s">
         <v>9</v>
       </c>
-      <c r="G20" t="s">
-        <v>47</v>
-      </c>
+      <c r="G20"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" t="s">
-        <v>49</v>
       </c>
       <c r="C21">
         <v>156</v>
@@ -948,7 +943,7 @@
         <v>20190</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -957,16 +952,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">

--- a/products.xlsx
+++ b/products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -35,9 +35,6 @@
     <t>cat</t>
   </si>
   <si>
-    <t>imgs</t>
-  </si>
-  <si>
     <t>HTC One SV White</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
   </si>
   <si>
     <t>Телефония, МР3-плееры, GPS/Телефоны/Смартфоны</t>
-  </si>
-  <si>
-    <t>3d2e0199b9008d5490a9759149e9f032.jpg|656912f86593ecab2e1ce2c4a2f79caa.jpg</t>
   </si>
   <si>
     <t>Мобильный телефон Samsung Galaxy Grand Duos I9082 elegant white</t>
@@ -509,7 +503,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +511,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,16 +530,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
       </c>
       <c r="C2">
         <v>4000</v>
@@ -555,18 +546,15 @@
       </c>
       <c r="E2"/>
       <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
       </c>
       <c r="C3">
         <v>3629</v>
@@ -576,16 +564,15 @@
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3"/>
-    </row>
-    <row r="4" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>7595</v>
@@ -595,16 +582,15 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>4999</v>
@@ -614,16 +600,15 @@
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5"/>
-    </row>
-    <row r="6" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>5295</v>
@@ -633,16 +618,15 @@
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6"/>
-    </row>
-    <row r="7" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>5445</v>
@@ -652,16 +636,15 @@
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>285</v>
@@ -670,19 +653,18 @@
         <v>20205</v>
       </c>
       <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -691,19 +673,18 @@
         <v>20203</v>
       </c>
       <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>285</v>
@@ -712,19 +693,18 @@
         <v>20202</v>
       </c>
       <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>212</v>
@@ -733,19 +713,18 @@
         <v>20201</v>
       </c>
       <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>215</v>
@@ -754,19 +733,18 @@
         <v>20200</v>
       </c>
       <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>215</v>
@@ -775,19 +753,18 @@
         <v>20199</v>
       </c>
       <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>210</v>
@@ -796,19 +773,18 @@
         <v>20198</v>
       </c>
       <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>210</v>
@@ -817,19 +793,18 @@
         <v>20196</v>
       </c>
       <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>210</v>
@@ -838,19 +813,18 @@
         <v>20195</v>
       </c>
       <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>210</v>
@@ -859,19 +833,18 @@
         <v>20194</v>
       </c>
       <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -880,19 +853,18 @@
         <v>20193</v>
       </c>
       <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>100</v>
@@ -901,19 +873,18 @@
         <v>20192</v>
       </c>
       <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>156</v>
@@ -922,19 +893,18 @@
         <v>20191</v>
       </c>
       <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>156</v>
@@ -943,31 +913,29 @@
         <v>20190</v>
       </c>
       <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22"/>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
   <si>
     <t>name</t>
   </si>
@@ -26,28 +26,106 @@
     <t>prc</t>
   </si>
   <si>
+    <t>oldprc</t>
+  </si>
+  <si>
+    <t>stk</t>
+  </si>
+  <si>
     <t>num</t>
   </si>
   <si>
     <t>var</t>
   </si>
   <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>brd</t>
+  </si>
+  <si>
     <t>cat</t>
   </si>
   <si>
+    <t>relp</t>
+  </si>
+  <si>
+    <t>vimg</t>
+  </si>
+  <si>
+    <t>cur</t>
+  </si>
+  <si>
     <t>imgs</t>
   </si>
   <si>
+    <t>shdesc</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>mett</t>
+  </si>
+  <si>
+    <t>metd</t>
+  </si>
+  <si>
+    <t>metk</t>
+  </si>
+  <si>
+    <t>diagekr</t>
+  </si>
+  <si>
+    <t>akamulatorl</t>
+  </si>
+  <si>
+    <t>multysimcard</t>
+  </si>
+  <si>
+    <t>operazionajsistema</t>
+  </si>
+  <si>
+    <t>kamera</t>
+  </si>
+  <si>
+    <t>zastotaprozesora</t>
+  </si>
+  <si>
     <t>HTC One SV White</t>
   </si>
   <si>
     <t>htc-one-sv-white</t>
   </si>
   <si>
+    <t>HTC</t>
+  </si>
+  <si>
     <t>Телефония, МР3-плееры, GPS/Телефоны/Смартфоны</t>
   </si>
   <si>
-    <t>3d2e0199b9008d5490a9759149e9f032.jpg|656912f86593ecab2e1ce2c4a2f79caa.jpg</t>
+    <t>1019_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>HTC One SV c легкостью справится с твоим напряженным графиком благодаря сверхбыстрому двухъядерному процессору с частотой 1,2&amp;nbsp;ГГц. Камера нового поколения, чистейший звук и элегантный дизайн&amp;nbsp;— практичный телефон для такого требовательного пользователя, как Вы&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td colspan="2"&gt;&lt;h2&gt;&lt;/h2&gt;&lt;hr&gt;&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Форм-фактор телефона&lt;/td&gt;&lt;td&gt;Моноблок&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Процессор&lt;/td&gt;&lt;td&gt;Qualcomm Snapdragon S4 (1.2 ГГц)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Размеры&lt;/td&gt;&lt;td&gt;128 x 66.9 x 9.2 мм&amp;nbsp;&lt;br&gt;122 г&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Поддержка нескольких СИМ-карт&lt;/td&gt;&lt;td&gt;Нет&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Дисплей&lt;/td&gt;&lt;td&gt;Сенсорный 4.3", 480x800, Super LCD-2, емкостный&lt;br&gt;Стекло Corning Gorilla Glass 2&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Сигналы вызова&lt;/td&gt;&lt;td&gt;Полифонические мелодии&lt;br&gt;МP3 звонок&lt;br&gt;Виброзвонок&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Камера&lt;/td&gt;&lt;td&gt;5 Мп, автофокус, LED-подсветка, датчик BSI&lt;br&gt;28 мм объектив, светосила f/2.0&lt;br&gt;Запись видео FullHD 1080p&lt;br&gt;1.6 Мп фронтальная камера&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Стандарт&lt;/td&gt;&lt;td&gt;GSM 850 / 900 / 1800 / 1900 МГц&amp;nbsp;&lt;br&gt;HSDPA 900 / 1900 / 2100 МГц&lt;br&gt;LTE 800 / 1800 / 2600 МГц&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Размеры СИМ-карты&lt;/td&gt;&lt;td&gt;Микро-СИМ&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Функции памяти&lt;/td&gt;&lt;td&gt;ОЗУ: 1 ГБ&lt;br&gt;ПЗУ: 8 ГБ&lt;br&gt;Поддержка карт памяти microSD (до 32 ГБ)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Органайзер&lt;/td&gt;&lt;td&gt;Закладки, Калькулятор, Календарь, Часы, Контакты, Акции, Погода и другие&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Развлечения&lt;/td&gt;&lt;td&gt;Медиаплеер&lt;br&gt;Поддерживаемые форматы аудио:.aac, .amr, .ogg, .m4a, .mid, .mp3, .wav, .wma&lt;br&gt;Поддерживаемые форматы видео: .3gp, .3g2, .mp4, .wmv (Windows Media Video 9), .avi (MP4 ASP и MP3)&lt;br&gt;Игры&lt;br&gt;Социальные сети&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Работа с сообщениями&lt;/td&gt;&lt;td&gt;SMS, MMS, Email, Push Email&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Интернет&lt;/td&gt;&lt;td&gt;GPRS&lt;br&gt;EDGE&lt;br&gt;3G: HSDPA 42 Мбит/с; HSUPA 5.76 Мбит/с&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Беспроводные технологии&lt;/td&gt;&lt;td&gt;Wi-Fi 802.11 a/b/g/n&lt;br&gt;Bluetooth 4.0&lt;br&gt;DLNA&amp;nbsp;&lt;br&gt;GPS (поддержка A-GPS и GLONASS)&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Питание&lt;/td&gt;&lt;td&gt;Литий-ионный аккумулятор, 1800 мАч&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Операционная система&lt;/td&gt;&lt;td&gt;Android&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Комплект поставки&lt;/td&gt;&lt;td&gt;Смартфон HTC&lt;br&gt;Литий-ионный аккумулятор&lt;br&gt;Зарядное устройство&lt;br&gt;Руководство пользователя&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Цвет&lt;/td&gt;&lt;td&gt;White&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;&lt;br&gt;&lt;/td&gt;&lt;td&gt;&lt;br&gt;&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t>от 1500 до 2000 mAh</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>5 Mpx</t>
+  </si>
+  <si>
+    <t>от 1.5 до 2 GHz</t>
   </si>
   <si>
     <t>Мобильный телефон Samsung Galaxy Grand Duos I9082 elegant white</t>
@@ -56,112 +134,768 @@
     <t>mobilnyi-telefon-samsung-galaxy-grand-duos-i9082-elegant-white</t>
   </si>
   <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>1096_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;span style="text-align:justify"&gt;Элегантный белый тонкий смартфон Samsung Galaxy Grand Duos I9082 elegant white будет настоящей находкой для людей, ценящих в мобильных устройствах прежде всего практичность и функциональность. Две SIM-карты позволят четко разделять рабочие и личные звонки, а также облегчают ориентацию в списке контактов. Сенсорный 5-дюймовый WVGA дисплей обладает отличной чувствительностью и быстро реагирует даже на легчайшие прикосновения пальцев.&amp;nbsp;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="text-align:justify" class="undefined"&gt;Модель &amp;nbsp;оснащена достаточно мощным по меркам мобильной техники двухъядерным процессором с частотой 1.2 ГГц и 1 ГБ оперативной памяти. Благодаря этому будет максимально сокращено время включения телефона и запуска всевозможных приложений. Кстати, для последних предусмотрены 8 ГБ встроенной памяти, которую можно расширить до 64 ГБ с помощью карты памяти microSD. Так что ваши любимые игры, фотографии, видеозаписи, музыка будут всегда под рукой.&lt;br&gt;&lt;/span&gt;&lt;span style="text-align:justify"&gt;С помощью этого смартфона вы сможете делать отличные снимки не только статичных, но и движущихся объектов, поскольку он оснащен камерой с разрешением 8 Мп с автофокусом. Эта же камера позволит вам записывать видео в формате FullHD.&lt;/span&gt;&lt;div&gt;&lt;div style="text-align:justify"&gt;&lt;br&gt;&lt;/div&gt;&lt;div style="text-align:justify"&gt;&lt;div&gt;&lt;div&gt;&lt;h3&gt;Основные&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Тип устройства&lt;/td&gt;&lt;td&gt;Смартфон&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Операционная система&lt;/td&gt;&lt;td&gt;Android 4.1 Jelly Bean&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диагональ экрана&lt;/td&gt;&lt;td&gt;5"&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Сенсорный экран&lt;/td&gt;&lt;td&gt;Да&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Количество SIM-карт&lt;/td&gt;&lt;td&gt;2 SIM&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Тип корпуса&lt;/td&gt;&lt;td&gt;Моноблок&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Экран&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Разрешение экрана&lt;/td&gt;&lt;td&gt;480x800&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Количество цветов&lt;/td&gt;&lt;td&gt;16 миллионов&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Процессор&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Процессор&lt;/td&gt;&lt;td&gt;Двухъядерный Samsung Exynos (1.2 ГГц)&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Камера&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Камера&lt;/td&gt;&lt;td&gt;8 Mpx&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Запись видео&lt;/td&gt;&lt;td&gt;1080p&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Фронтальная камера&lt;/td&gt;&lt;td&gt;Есть&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Дополнительно&lt;/td&gt;&lt;td&gt;Автофокус, LED-подсветка&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Память&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Внутренняя память&lt;/td&gt;&lt;td&gt;8 Гб&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Оперативная память&lt;/td&gt;&lt;td&gt;1 Гб&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Поддержка карт памяти&lt;/td&gt;&lt;td&gt;microSD до 64 Гб&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;div&gt;&lt;h3&gt;Беспроводные технологии&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Bluetooth&lt;/td&gt;&lt;td&gt;Bluetooth 4.0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Wi-Fi&lt;/td&gt;&lt;td&gt;IEEE 802.11 b/g/n&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GPS&lt;/td&gt;&lt;td&gt;A-GPS&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Развлечения и мультимедиа&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;FM-тюнер&lt;/td&gt;&lt;td&gt;Есть&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MP3-плеер&lt;/td&gt;&lt;td&gt;Есть&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Интерфейсы&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Интерфейсы и подключения&lt;/td&gt;&lt;td&gt;microUSB&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Аккумулятор&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Емкость аккумулятора&lt;/td&gt;&lt;td&gt;2100 mAh&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Прочее&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Органайзер&lt;/td&gt;&lt;td&gt;Есть&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SMS/EMS/MMS/E-mail&lt;/td&gt;&lt;td&gt;SMS/MMS/E-mail&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Стандарты и технологии&lt;/td&gt;&lt;td&gt;GSM: 850/ 900/1800/1900 МГц, HSPA/WCDMA: 900/2100 МГц&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Размеры и вес&lt;/td&gt;&lt;td&gt;143.5 x 76.9 x 9.6 мм&lt;br&gt;162 грамма&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Комплектация&lt;/td&gt;&lt;td&gt;Смартфон Samsung Galaxy Grand Duos I9082 elegant white, аккумулятор, зарядное устройство, кабель USB, гарантийный талон, руководство пользователя&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Гарантия&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Гарантийный срок&lt;/td&gt;&lt;td&gt;12 месяцев&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Дополнительно&lt;/td&gt;&lt;td&gt;Характеристики и комплектация товара могут быть изменены производителем без уведомления.&amp;nbsp;&lt;br&gt;Товар сертифицирован, IMEI внесен в базу УДЦР&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Обмен и возврат товара&lt;/td&gt;&lt;td&gt;Обмен и возврат товара осуществляется в течение 14 дней после покупки, согласно закону Украины "О защите прав потребителей Украины"&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;/div&gt;  &lt;br&gt;&lt;/div&gt;&lt;span style="text-align:justify"&gt;&lt;/span&gt;&lt;div&gt;&lt;span style="text-align:justify"&gt;&lt;br&gt;&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>от 2000 до 3000 mAh</t>
+  </si>
+  <si>
+    <t>Android 4.1</t>
+  </si>
+  <si>
+    <t>8 Mpx</t>
+  </si>
+  <si>
+    <t>от 1 до 1.5 GHz</t>
+  </si>
+  <si>
     <t>Мобильный телефон Sony Xperia Z C6603 Black</t>
   </si>
   <si>
     <t>mobilnyi-telefon-sony-xperia-z-c6603-black</t>
   </si>
   <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>1099_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Sony Xperia Z C6603 Black можно смело назвать флагманом линейки Xperia. Данная модель оснащена невероятно четким и очень ярким 5-дюймовым дисплеем Reality Display с поддержкой формата Full HD/</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Sony Xperia Z C6603 Black можно смело назвать флагманом линейки Xperia. Данная модель оснащена невероятно четким и очень ярким 5-дюймовым дисплеем Reality Display с поддержкой формата Full HD (стандарт 1080p с прогрессивной разверткой). Телефон оснащен 13-мегапиксельной камерой с поддержкой множества современных функций. Технология HDR (High Dynamic Range) позволит создавать четкие фотоснимки даже в условиях яркого заднего света. Режим серийной съемки позволяет снимать неограниченное количество фотографий со скоростью 10 кадров в секунду, после чего вы можете выбрать наиболее удачный кадр. Данная функция особенно актуальна при съемке во время движения. Sony Xperia Z прошел достаточное количество тестов, и доказал высокое соответствие стандартам IP55 и IP57. Это значит, что телефон защищен от попадания влаги и пыли внутрь корпуса.   &lt;div&gt;&lt;br&gt;&lt;/div&gt;&lt;div&gt;&lt;div&gt;&lt;div&gt;&lt;h3&gt;Основные&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Тип устройства&lt;/td&gt;&lt;td&gt;Смартфон&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Операционная система&lt;/td&gt;&lt;td&gt;Android 4.1 Jelly Bean&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диагональ экрана&lt;/td&gt;&lt;td&gt;5"&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Сенсорный экран&lt;/td&gt;&lt;td&gt;Да&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Количество SIM-карт&lt;/td&gt;&lt;td&gt;1 SIM&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Формат SIM-карты&lt;/td&gt;&lt;td&gt;Стандартная&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Тип корпуса&lt;/td&gt;&lt;td&gt;Моноблок&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Материал корпуса&lt;/td&gt;&lt;td&gt;Пластик&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Экран&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Разрешение экрана&lt;/td&gt;&lt;td&gt;1920x1080&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Тип экрана&lt;/td&gt;&lt;td&gt;TFT&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Количество цветов&lt;/td&gt;&lt;td&gt;16 миллионов&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Процессор&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Процессор&lt;/td&gt;&lt;td&gt;1.5 GHz Qualcomm APQ8064+MDM9215M Quad Core&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Камера&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Камера&lt;/td&gt;&lt;td&gt;13 Mpx&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Запись видео&lt;/td&gt;&lt;td&gt;Да&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Фронтальная камера&lt;/td&gt;&lt;td&gt;Есть&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Память&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Внутренняя память&lt;/td&gt;&lt;td&gt;16 Гб&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Оперативная память&lt;/td&gt;&lt;td&gt;2 Гб&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Поддержка карт памяти&lt;/td&gt;&lt;td&gt;microSD до 32 Гб&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;div&gt;&lt;h3&gt;Беспроводные технологии&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Bluetooth&lt;/td&gt;&lt;td&gt;Bluetooth 4.0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Wi-Fi&lt;/td&gt;&lt;td&gt;IEEE 802.11 b/g/n&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GPS&lt;/td&gt;&lt;td&gt;A-GPS&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Развлечения и мультимедиа&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;FM-тюнер&lt;/td&gt;&lt;td&gt;Есть&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MP3-плеер&lt;/td&gt;&lt;td&gt;Есть&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Интерфейсы&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Интерфейсы и подключения&lt;/td&gt;&lt;td&gt;HDMI, microUSB, Аудио 3,5 мм&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Аккумулятор&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Емкость аккумулятора&lt;/td&gt;&lt;td&gt;2330 mAh&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Время работы в режиме разговора&lt;/td&gt;&lt;td&gt;До 11 ч.&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Время работы в режиме ожидания&lt;/td&gt;&lt;td&gt;До 550 ч&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Прочее&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Органайзер&lt;/td&gt;&lt;td&gt;Есть&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SMS/EMS/MMS/E-mail&lt;/td&gt;&lt;td&gt;SMS/MMS/E-mail&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Стандарты и технологии&lt;/td&gt;&lt;td&gt;GSM: 850/ 900/1800/1900 МГц, HSPA/WCDMA: 900/2100 МГц&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Размеры и вес&lt;/td&gt;&lt;td&gt;139 x 71 x 7.9 мм&lt;br&gt;146 граммов&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Гарантия&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Гарантийный срок&lt;/td&gt;&lt;td&gt;12 месяцев&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Дополнительно&lt;/td&gt;&lt;td&gt;Характеристики и комплектация товара могут быть изменены производителем без уведомления.&amp;nbsp;&lt;br&gt;Товар сертифицирован, IMEI внесен в базу УДЦР&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Обмен и возврат товара&lt;/td&gt;&lt;td&gt;Обмен и возврат товара осуществляется в течение 14 дней после покупки, согласно закону Украины "О защите прав потребителей Украины"&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;  &lt;br&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>13 Mpx</t>
+  </si>
+  <si>
     <t>Мобильный телефон Sony Xperia V LT25i Black</t>
   </si>
   <si>
     <t>mobilnyi-telefon-sony-xperia-v-lt25i-black</t>
   </si>
   <si>
+    <t>13893,13897,13902,13904,6199,6201,6204,6193,6194,5775</t>
+  </si>
+  <si>
+    <t>1104_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;span style="font-weight: normal;"&gt;Sony Xperia V LT25i Black &amp;ndash; это умный, стильный и надежный смартфон, готовый стать для своего владельца верным помощником во всех делах и товарищем по развлечениям. &lt;/span&gt; &lt;br /&gt;&lt;br /&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sony Xperia V LT25i Black &amp;ndash; это умный, стильный и надежный смартфон, готовый стать для своего владельца верным помощником во всех делах и товарищем по развлечениям. Скорость его работы оставляет далеко позади всех потенциальных конкурентов &amp;ndash; благодаря мощному двухъядерному процессору Snapdragon S4 новейшего поколения с частотой 1,5 ГГц все приложения будут открываться мгновенно, а серфинг в интернете будет быстрым и комфортным как никогда. Новинка может похвастаться водонепроницаемостью &amp;ndash; смело разговаривайте под дождем или в бассейне &amp;ndash; смартфон Xperia V не боится влаги.&lt;br /&gt;Большой и яркий дисплей с диагональю 4,3 дюйма, HD-разрешением 1280 x 720 пикселей и 16 миллионами цветов позволит вам наслаждаться максимально реалистичным изображением, которое будет выглядеть на экране телефона ничуть не хуже, чем на вашем домашнем телевизоре.&lt;/p&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;div&gt;
+&lt;div&gt;
+&lt;div&gt;
+&lt;h3&gt;Основные&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Тип устройства&lt;/td&gt;
+&lt;td&gt;Смартфон&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Операционная система&lt;/td&gt;
+&lt;td&gt;Android 4.0 (Ice Cream Sandwich)&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Диагональ экрана&lt;/td&gt;
+&lt;td&gt;4.3"&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Сенсорный экран&lt;/td&gt;
+&lt;td&gt;Да&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Количество SIM-карт&lt;/td&gt;
+&lt;td&gt;1 SIM&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Формат SIM-карты&lt;/td&gt;
+&lt;td&gt;microSIM&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Тип корпуса&lt;/td&gt;
+&lt;td&gt;Моноблок&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Материал корпуса&lt;/td&gt;
+&lt;td&gt;Пластик&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Экран&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Разрешение экрана&lt;/td&gt;
+&lt;td&gt;1280x720&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Тип экрана&lt;/td&gt;
+&lt;td&gt;TFT&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Количество цветов&lt;/td&gt;
+&lt;td&gt;16 миллионов&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Процессор&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Процессор&lt;/td&gt;
+&lt;td&gt;Qualcomm, 1,5 ГГц&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Камера&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Запись видео&lt;/td&gt;
+&lt;td&gt;Да&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Фронтальная камера&lt;/td&gt;
+&lt;td&gt;Есть&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Память&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Внутренняя память&lt;/td&gt;
+&lt;td&gt;8 Гб&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Оперативная память&lt;/td&gt;
+&lt;td&gt;1 Гб&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Поддержка карт памяти&lt;/td&gt;
+&lt;td&gt;microSD до 32 Гб&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;div&gt;
+&lt;h3&gt;Беспроводные технологии&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Bluetooth&lt;/td&gt;
+&lt;td&gt;Bluetooth&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Wi-Fi&lt;/td&gt;
+&lt;td&gt;IEEE 802.11 b/g/n&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;GPS&lt;/td&gt;
+&lt;td&gt;A-GPS&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Развлечения и мультимедиа&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;FM-тюнер&lt;/td&gt;
+&lt;td&gt;Есть&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;MP3-плеер&lt;/td&gt;
+&lt;td&gt;Есть&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Интерфейсы&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Интерфейсы и подключения&lt;/td&gt;
+&lt;td&gt;microUSB, Аудио 3,5 мм&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Аккумулятор&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Емкость аккумулятора&lt;/td&gt;
+&lt;td&gt;1750 mAh&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Время работы в режиме разговора&lt;/td&gt;
+&lt;td&gt;до 7 ч.&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Время работы в режиме ожидания&lt;/td&gt;
+&lt;td&gt;до 400 ч.&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Прочее&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Органайзер&lt;/td&gt;
+&lt;td&gt;Есть&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;SMS/EMS/MMS/E-mail&lt;/td&gt;
+&lt;td&gt;SMS/MMS/E-mail&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Стандарты и технологии&lt;/td&gt;
+&lt;td&gt;GSM: 850/ 900/1800/1900 МГц, HSPA/WCDMA: 900/2100 МГц&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Размеры и вес&lt;/td&gt;
+&lt;td&gt;129 x 65 x 10,7 мм&lt;br /&gt;120 граммов&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Гарантия&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Гарантийный срок&lt;/td&gt;
+&lt;td&gt;12 месяцев&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Дополнительно&lt;/td&gt;
+&lt;td&gt;Характеристики и комплектация товара могут быть изменены производителем без уведомления.&amp;nbsp;&lt;br /&gt;Товар сертифицирован, IMEI внесен в базу УДЦР&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Обмен и возврат товара&lt;/td&gt;
+&lt;td&gt;Обмен и возврат товара осуществляется в течение 14 дней после покупки, согласно закону Украины "О защите прав потребителей Украины"&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Android 4.0</t>
+  </si>
+  <si>
     <t>Мобильный телефон LG Nexus 4 E960 black</t>
   </si>
   <si>
     <t>mobilnyi-telefon-lg-nexus-4-e960-black</t>
   </si>
   <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>1105_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Смартфон обладает выдающимися характеристиками, а оснащение его самым новым производительным четырехъядерным 1,5-ГГц процессором Quad-core 1.5 GHz Krait, сопряженным с 2 Гбайт оперативной памяти, позволяет говорить о нём как об одном из самых быстрых в мире.&lt;/p&gt;
+&lt;div&gt;
+&lt;h2&gt;&amp;nbsp;&lt;/h2&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&amp;nbsp;Великолепный 4,7-дюймовый WXGA True HD IPS+ экран с разрешением 1280 на 768, вероятно, достался новинке от флагмана &amp;ndash; LG Optimus G. Высокие показатели контрастности и яркости (470 нит) и применение технологии G2 Touch Hybrid Display позволили добиться очень живой и реалистичной картинки, а некоторый изгиб по краям упрощает управление. Также надо отметить высокую экономичность дисплея. По уверениям разработчиков, он потребляет энергии на 70% меньше, чем AMOLED-панели.&lt;br /&gt;Смартфон оснащён двумя камерами. Основная оборудована качественной пятилинзовой оптикой, автофокусом, быстрым затвором и LED-вспышкой. В ней используется 8-МП CMOS датчик с обратной подсветкой. Фронтальная 1,3-мегапиксельная камера пригодится при видеозвонках или для проведения видеоконференций.&lt;br /&gt;Корпус смартфона сделан из качественной пластмассы, торцы прорезинены, а передняя и задняя поверхности практически полностью закрыты износостойким стеклом Gorilla Glass 2.&lt;br /&gt;Li-Po аккумулятор ёмкостью 2100 мАч обеспечивает работу аппарата до 15-часов в режиме разговора.&lt;/p&gt;
+&lt;div&gt;
+&lt;div&gt;
+&lt;div&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Диcплей&lt;/td&gt;
+&lt;td&gt;True HD IPS Plus 4.7" (768 x 1280)&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Процессор&lt;/td&gt;
+&lt;td&gt;4x-ядерный, 1.5 GHz Krait&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Операционная система&lt;/td&gt;
+&lt;td&gt;Android 4.2 Jelly Bean&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;/div&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;div&gt;
+&lt;div&gt;
+&lt;h3&gt;Основные&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Тип устройства&lt;/td&gt;
+&lt;td&gt;Смартфон&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Операционная система&lt;/td&gt;
+&lt;td&gt;Android 4.2 Jelly Bean&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Диагональ экрана&lt;/td&gt;
+&lt;td&gt;4.7"&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Сенсорный экран&lt;/td&gt;
+&lt;td&gt;Да&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Количество SIM-карт&lt;/td&gt;
+&lt;td&gt;1 SIM&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Формат SIM-карты&lt;/td&gt;
+&lt;td&gt;microSIM&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Тип корпуса&lt;/td&gt;
+&lt;td&gt;Моноблок&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Материал корпуса&lt;/td&gt;
+&lt;td&gt;Пластик&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Экран&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Разрешение экрана&lt;/td&gt;
+&lt;td&gt;1280x768&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Тип экрана&lt;/td&gt;
+&lt;td&gt;IPS&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Количество цветов&lt;/td&gt;
+&lt;td&gt;16 миллионов&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Дополнительно&lt;/td&gt;
+&lt;td&gt;4.7" HD-IPS Plus LCD (768 x 1280 точек) / 16.7 млн. цветов / сенсорный, емкостной / стойкое к царапинам стекло Gorilla Glass 2&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Процессор&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Процессор&lt;/td&gt;
+&lt;td&gt;4-ядерный Qualcomm APQ8064 Snapdragon (1.5 ГГц) Krait с графическим ядром Adreno 320&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Камера&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Камера&lt;/td&gt;
+&lt;td&gt;8 Mpx&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Запись видео&lt;/td&gt;
+&lt;td&gt;1080p&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Фронтальная камера&lt;/td&gt;
+&lt;td&gt;Есть&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Дополнительно&lt;/td&gt;
+&lt;td&gt;3264 x 2448 точек, автофокус, LED вспышка&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Память&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Внутренняя память&lt;/td&gt;
+&lt;td&gt;16 Гб&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Оперативная память&lt;/td&gt;
+&lt;td&gt;2 Гб&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Поддержка карт памяти&lt;/td&gt;
+&lt;td&gt;Нет&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;div&gt;
+&lt;h3&gt;Беспроводные технологии&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Bluetooth&lt;/td&gt;
+&lt;td&gt;Bluetooth 4.0&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Wi-Fi&lt;/td&gt;
+&lt;td&gt;IEEE 802.11 b/g/n&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;GPS&lt;/td&gt;
+&lt;td&gt;A-GPS&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Развлечения и мультимедиа&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;FM-тюнер&lt;/td&gt;
+&lt;td&gt;Нет&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;MP3-плеер&lt;/td&gt;
+&lt;td&gt;Есть&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Интерфейсы&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Интерфейсы и подключения&lt;/td&gt;
+&lt;td&gt;microUSB, Аудио 3,5 мм&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Аккумулятор&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Емкость аккумулятора&lt;/td&gt;
+&lt;td&gt;2100 mAh&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Время работы в режиме разговора&lt;/td&gt;
+&lt;td&gt;до 15 часов (3G)&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Время работы в режиме ожидания&lt;/td&gt;
+&lt;td&gt;до 390 часов (3G)&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;div&gt;&amp;nbsp;&lt;/div&gt;
+&lt;/div&gt;
+&lt;div&gt;
+&lt;h3&gt;Прочее&lt;/h3&gt;
+&lt;table&gt;
+&lt;tbody&gt;
+&lt;tr&gt;
+&lt;td&gt;Органайзер&lt;/td&gt;
+&lt;td&gt;Часы&lt;br /&gt;Планировщик&lt;br /&gt;Просмотр офисных документов&lt;br /&gt;Секундомер&lt;br /&gt;Таймер&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;SMS/EMS/MMS/E-mail&lt;/td&gt;
+&lt;td&gt;SMS(threaded view)&lt;br /&gt;MMS&lt;br /&gt;Email&lt;br /&gt;Push Mail&lt;br /&gt;IM&lt;br /&gt;RSS&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Стандарты и технологии&lt;/td&gt;
+&lt;td&gt;GSM: 850/ 900/1800/1900 МГц, HSPA/WCDMA: 900/2100 МГц&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Размеры и вес&lt;/td&gt;
+&lt;td&gt;133.9 x 68.7 x 9.1 мм&lt;br /&gt;139 гр&lt;/td&gt;
+&lt;/tr&gt;
+&lt;tr&gt;
+&lt;td&gt;Комплектация&lt;/td&gt;
+&lt;td&gt;Телефон&lt;br /&gt;Батарея&lt;br /&gt;Зарядное устройство&lt;br /&gt;USB-кабель&lt;br /&gt;Инструкция&lt;br /&gt;Гарантийный талон.&lt;/td&gt;
+&lt;/tr&gt;
+&lt;/tbody&gt;
+&lt;/table&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
     <t>Nokia Lumia 920 White</t>
   </si>
   <si>
     <t>nokia-lumia-920-white</t>
   </si>
   <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>1108_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>Смелый дизайн, самые высокие технологии, как в аппаратном, так и программном обеспечении делают мобильный телефон Nokia Lumia 920 White достойным объектом для обожания миллионов пользователей и причин для этого, как Вы увидите ниже, более чем достаточно.&lt;div&gt;&lt;h2&gt;&lt;/h2&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Огромный 4,5-дюймовый дисплей, с вполне компьютерным разрешением 1280х768 пикселей, демонстрирует незаурядную яркость и четкость картинки, безукоризненно выполняя при этом роль устройства ввода, благодаря емкостной сенсорной панели, поддерживающей технологию Multipoint-Touch. Особенно приятно смотрится на этом экране «рабочий стол» операционной системы Windows Phone 8, открывающей новые горизонты удобства, функциональности и производительности мира мобильных устройств. «Бестормозная» работа всего этого добра обеспечивается также не «абы чем» - а великолепным двухъядерным процессором Snapdragon™ S4, 1 ГБ оперативной памяти и 32-ГБ накопителем, для хранения приложений, аудио видео и прочих файлов. Но самое главное – это безупречное качество связи в сетях 2G, 3G и 4G, поддержка Wi-Fi, в общем, все, то, что делает общение безграничным и доступным каждому.&lt;br&gt;Так что, если Вы готовы приобщиться к новым высотам информационных и коммуникационных технологий, мобильный телефон Nokia Lumia 920 White – это самый короткий путь к вершинам.&amp;nbsp;   &lt;div&gt;&lt;div&gt;&lt;div&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Внутренняя память&lt;/td&gt;&lt;td&gt;32 Гб&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диcплей&lt;/td&gt;&lt;td&gt;4.5" Gorilla Glass&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Операционная система&lt;/td&gt;&lt;td&gt;Windows Phone 8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Процессор&lt;/td&gt;&lt;td&gt;Двухъядерный 1,5 Ггц&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Корпус&lt;/td&gt;&lt;td&gt;Поликарбонатный корпус с модулем беспроводной зарядки&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;div&gt;&lt;div&gt;&lt;h3&gt;Основные&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Тип устройства&lt;/td&gt;&lt;td&gt;Смартфон&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Операционная система&lt;/td&gt;&lt;td&gt;Windows Phone 8&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Диагональ экрана&lt;/td&gt;&lt;td&gt;4.5"&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Сенсорный экран&lt;/td&gt;&lt;td&gt;Да&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Количество SIM-карт&lt;/td&gt;&lt;td&gt;1 SIM&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Формат SIM-карты&lt;/td&gt;&lt;td&gt;microSIM&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Тип корпуса&lt;/td&gt;&lt;td&gt;Моноблок&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Материал корпуса&lt;/td&gt;&lt;td&gt;Пластик&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Экран&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Разрешение экрана&lt;/td&gt;&lt;td&gt;1280x720&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Тип экрана&lt;/td&gt;&lt;td&gt;Puremotion HD+&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Количество цветов&lt;/td&gt;&lt;td&gt;16 миллионов&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Дополнительно&lt;/td&gt;&lt;td&gt;емкостный, сенсорный, Corning Gorilla Glass&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Процессор&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Процессор&lt;/td&gt;&lt;td&gt;Snapdragon™ S4 (1.5ГГц)&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Камера&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Камера&lt;/td&gt;&lt;td&gt;8.7 Mpx&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Запись видео&lt;/td&gt;&lt;td&gt;1080p&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Фронтальная камера&lt;/td&gt;&lt;td&gt;Есть&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Дополнительно&lt;/td&gt;&lt;td&gt;Двойная вспышка и автофокус&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Память&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Внутренняя память&lt;/td&gt;&lt;td&gt;32 Гб&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Оперативная память&lt;/td&gt;&lt;td&gt;1 Гб&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Поддержка карт памяти&lt;/td&gt;&lt;td&gt;Нет&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;div&gt;&lt;h3&gt;Беспроводные технологии&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Bluetooth&lt;/td&gt;&lt;td&gt;Bluetooth 3.0&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Wi-Fi&lt;/td&gt;&lt;td&gt;IEEE 802.11 b/g/n&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;GPS&lt;/td&gt;&lt;td&gt;A-GPS&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Развлечения и мультимедиа&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;FM-тюнер&lt;/td&gt;&lt;td&gt;Нет&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;MP3-плеер&lt;/td&gt;&lt;td&gt;Есть&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Аккумулятор&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Емкость аккумулятора&lt;/td&gt;&lt;td&gt;2000 mAh&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Время работы в режиме разговора&lt;/td&gt;&lt;td&gt;Максимальное время работы в режиме разговора в сети 2G - 18.6 ч&lt;br&gt;Максимальное время работы в режиме разговора в сети 3G - 10.8 ч&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Время работы в режиме ожидания&lt;/td&gt;&lt;td&gt;Максимальное время работы в режиме ожидания в сети 2G - 460 ч&lt;br&gt;Максимальное время работы в режиме ожидания в сети 3G - 460 ч&lt;br&gt;&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;div&gt;&lt;/div&gt;&lt;/div&gt;&lt;div&gt;&lt;h3&gt;Прочее&lt;/h3&gt;&lt;table&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;Органайзер&lt;/td&gt;&lt;td&gt;Диктофон&lt;br&gt;Калькулятор&lt;br&gt;Часы&lt;br&gt;Календарь&lt;br&gt;Телефонная книга&lt;br&gt;Заметки&lt;br&gt;Напоминания&lt;br&gt;Список задач&lt;br&gt;Социальные сети в телефонной книге&lt;br&gt;OneNote&lt;br&gt;Кошелек&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;SMS/EMS/MMS/E-mail&lt;/td&gt;&lt;td&gt;SMS/MMS/E-mail&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Стандарты и технологии&lt;/td&gt;&lt;td&gt;GSM: 850/ 900/1800/1900 МГц, HSPA/WCDMA: 900/2100 МГц&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Размеры и вес&lt;/td&gt;&lt;td&gt;130,3 x 70,8 x 10,7 мм / 185 г&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Комплектация&lt;/td&gt;&lt;td&gt;Nokia Lumia 920&lt;br&gt;Высокоэффективное зарядное устройство Nokia USB AC-16&lt;br&gt;Кабель для зарядки и передачи данных Nokia CA-190CD&lt;br&gt;Гарнитура Nokia WH-208&lt;br&gt;Краткое руководство&lt;br&gt;Клавиша SIM Door&lt;br&gt;Гарантийный талон&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;  &lt;br&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6500 Galaxy Mini 2 RWD Ceramic White</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6500-galaxy-mini-2-rwd-ceramic-white</t>
+  </si>
+  <si>
+    <t>12030_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt; OS Android 2.3; CPU 800 Mhz (Cortex-A5), ROM 4 GB, RAM  512 MB, microSD до 32 GB&lt;/li&gt;&lt;li&gt; Дисплей 3.27, HVGA (800x480),TFT LCD, G-сенсор&lt;/li&gt;&lt;li&gt; Камера 3 MPx, VGA для видеозвонка, Bluetooth, WI-FI, GPS, Geotaging&lt;/li&gt;&lt;li&gt; Аккумулятор 1300 mAh; габариты 109.4 x 58.6 x 11.63 мм&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Свежий и стильный дизайн&lt;br&gt;&lt;/strong&gt;Теперь к вашим услугам более широкий, яркий и четкий дисплей, который идеально подходит для просмотра изображений, поиска информации в Интернете и общения в социальных сетях. Однако mini 2 остается таким же симпатичным, компактным и красочным, как и его предшественник. Настоящий символ вашего веселого и живого характера, этот смартфон очарует любого с первого взгляда. Изящество и тонкий корпус новой модели (11.63 мм) обеспечат абсолютный комфорт в дороге.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Непревзойденное удобство просмотра&lt;br&gt;&lt;/strong&gt;Более крупный, но в то же время миниатюрный TFT-дисплей с разрешением HVGA гарантирует более сочные цвета и повышенную четкость изображения. Теперь еще проще просматривать обновления в любимых социальных сетях, будь то свежие фотографии или видеозаписи. На увеличенном дисплее намного удобнее искать интересующие вас места с помощью Карт Google, пользоваться приложениями и общаться в многопользовательских чатах.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Сменная крышка аккумулятора&lt;br&gt;&lt;/strong&gt;Обладатели Galaxy mini 2 могут менять крышку аккумулятора по настроению — с новой моделью вы в любой момент освежите свой образ!&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Расширенная память и аппаратные возможности&lt;br&gt;&lt;/strong&gt;Пользователи Galaxy mini 2 никогда не будут страдать от нехватки развлечений с таким богатым набором мультимедийных возможностей. &lt;br&gt;Смартфон оснащен встроенной памятью щедрого объема — 2.7 ГБ для новых и давно любимых приложений, а также снимков, видеозаписей, музыки и игр. Емкий аккумулятор позволяет интенсивно работать с мультимедиа весь день и не даст смартфону разрядиться в неподходящий момент. Мощный процессор смартфона с тактовой частотой 800 МГц обеспечивает высокую скорость включения и перехода между экранами меню, работы с приложениями и мультимедиа.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Обширные функциональные возможности&lt;br&gt;&lt;/strong&gt;Вы можете напрямую загрузить бесплатное приложение для обмена мгновенными сообщениями ChatON и окунуться в мир общения без границ! Кроме того, в вашем распоряжении окажутся все мобильные службы Google, включая Поиск, Карты, Gmail или YouTube. Не упустите и возможность постоянно оставаться на связи с друзьями в Facebook и Twitter.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>от 1000 до 1500 mAh</t>
+  </si>
+  <si>
+    <t>Android 2.3</t>
+  </si>
+  <si>
+    <t>3 Mpx</t>
+  </si>
+  <si>
+    <t>от 800 до 1000 MHz</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6500 Galaxy Mini 2 ZYD Yellow</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6500-galaxy-mini-2-zyd-yellow</t>
+  </si>
+  <si>
+    <t>12031_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt; OS Android 2.3; CPU 800 Mhz (Cortex-A5), ROM 4 GB, RAM  512 MB, microSD до 32 GB&lt;/li&gt;&lt;li&gt; Дисплей 3.27, HVGA (800x480), TFT LCD, G-сенсор&lt;/li&gt;&lt;li&gt; Камера 3 MPx, VGA для видеозвонка, Bluetooth, WI-FI, GPS, Geotaging&lt;/li&gt;&lt;li&gt; Аккумулятор 1300 mAh; габариты 109.4 x 58.6 x 11.63 мм&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 AKA Galaxy Ace Duos Metallic Black</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-aka-galaxy-ace-duos-metallic-black</t>
+  </si>
+  <si>
+    <t>12032_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt; OS Android 2.3 (Gingerbread); CPU 0.832 Ghz, ROM 4 GB, RAM  512 MB, microSD до 32 GB&lt;/li&gt;&lt;li&gt; Дисплей 3.5, (320x480), TFT LCD&lt;/li&gt;&lt;li&gt; Камера 5 MPx + AF, 3G, Bluetooth, EDGE/GPRS, USB, Wi-Fi, GPS, PC Sync&lt;/li&gt;&lt;li&gt; Аккумулятор 1300 mAh; габариты 112.74 х 61.5 х 11.5 мм&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Унаследовав от Galaxy Ace премиальный дизайн, высокую производительность, и широкие функциональные возможности, новинка поддерживает технологию Duos, которая позволяет одновременно использовать две SIM-карты. Со смартфоном Samsung Galaxy Ace Duos пользователь сможет легко сохранять баланс между профессиональной деятельностью и личной жизнью. Возможность автоматического переключения между тарифными планами позволит оптимизировать затраты на мобильную связь.&lt;/p&gt;&lt;p&gt;Samsung Galaxy Ace Duos максимально повышает гибкость коммуникаций и дает возможность использовать два телефонных номера в одном устройстве. Уникальная функция Dual SIM always on автоматически перенаправит входящий звонок с SIM-2 на SIM-1, даже если основная SIM-карта уже задействована. Благодаря этому пользователь сможет легко поддерживать баланс между профессиональной деятельностью и личной жизнью, не пропуская важные звонки.&lt;/p&gt;&lt;p&gt;Samsung Galaxy Ace Duos дополнит ваш стиль своим элегантным, компактным и ультрасовременным дизайном, который новинка унаследовала от Samsung Galaxy Ace. Смартфон оснащен 3.5-дюймовым экраном на котором удобно просматривать текстовые сообщения, мультимедиа и веб-контент. Технология HSDPA 7.2 (High-Speed Downlink Packet Access) обеспечит быстрый интернет-серфинг и загрузку контента за минимальное время. Встроенная 5-мегапиксельная камера позволит обмениваться изображениями и видео высокого качества.&lt;/p&gt;&lt;p&gt;В дополнение к превосходным техническим характеристикам, Galaxy Ace Duos обладает продуманным и интуитивно понятным интерфейсом TouchWiz, который предоставляет пользователям дополнительный комфорт при использовании смартфона. Для хранения музыки, видео и изображений доступно 3 GB встроенной памяти. Смартфон поддерживает кросс-платформенный коммуникационный сервис Samsung ChatON, объединяющий пользователей различных мобильных платформ в единое сообщество. Благодаря ChatON можно обмениваться сообщениями и различным мультимедийным контентом.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 CWA Galaxy Ace Duos Сhic White</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-cwa-galaxy-ace-duos-shic-white</t>
+  </si>
+  <si>
+    <t>12033_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 Galaxy Ace Duos ZKA Black</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-galaxy-ace-duos-zka-black</t>
+  </si>
+  <si>
+    <t>12034_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt; OS Android 2.3; CPU 832 Мhz, ROM 4 GB, microSD до 32 GB&lt;/li&gt;&lt;li&gt; Дисплей 3.5, HVGA (320x480), TFT LCD&lt;/li&gt;&lt;li&gt; Камера 5 MPx + AF, VGA для видеозвонка, Bluetooth, WI-FI, GPS&lt;/li&gt;&lt;li&gt; Аккумулятор 1300 mAh; габариты 112.74 x 61.5 x 11.5 мм&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 TIZ Galaxy Ace Duos Romantic Pink La Fleur</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-tiz-galaxy-ace-duos-romantic-pink-la-fleur</t>
+  </si>
+  <si>
+    <t>12035_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 ZIA Galaxy Ace Duos Pink</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-zia-galaxy-ace-duos-pink</t>
+  </si>
+  <si>
+    <t>12036_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 ZYA Galaxy Ace Duos Yellow</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-zya-galaxy-ace-duos-yellow</t>
+  </si>
+  <si>
+    <t>12038_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6810 Galaxy Fame Metallic Blue</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6810-galaxy-fame-metallic-blue</t>
+  </si>
+  <si>
+    <t>12039_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt; OS Android 4.1 (Jelly Bean); CPU 1.0 Ghz, ROM 4 GB, RAM 512 MB, microSD до 32 GB&lt;/li&gt;&lt;li&gt; Дисплей 3.5, HVGA (320x480), TFT&lt;/li&gt;&lt;li&gt; Камера 5 MPx + AF, VGA, Bluetooth, Wi-Fi, A-GPS&lt;/li&gt;&lt;li&gt; Аккумулятор 1300 mAh; габариты 113.2 x 61.6 x 11.55 мм&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;В новом стильном и компактном смартфоне Samsung GALAXY Fame есть все, что необходимо для самой активной мобильной жизни!&lt;br&gt;Новейшая операционная система Jelly Bean OS в сочетании с мощным процессором обеспечат вам полный набор функций, присущих семейству смартфонов Samsung GALAXY. Помимо этого, этот смартфон оснащен массой самых инновационных функций для развлечений, а также доступ на портал Samsung Hub и к облачному сервису Cloud.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Потрясающе быстрая реакция и высокая функциональность&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Обладая быстродействием и удобством ноутбука, смартфон Samsung’s GALAXY FAME позволит вам все делать легко и быстро. Созданный с использованием самых новейших технологических достижений, смартфон Samsung GALAXY FAME обладает рабочими характеристиками и функциональностью, о которых можно только мечтать.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Жестовый интерфейс Motion UI&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Жестовый пользовательский интерфейс Motion UI использует простые и интуитивно-понятные жесты для выполнения повседневных задач&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Поддержка сервиса ChatON&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Подключитесь ко всем мобильным телефонам своих друзей с помощью одного мессенджера, поделитесь с ними видеоклипами, фотоснимками, отправьте им голосовые сообщения.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Функция Change Display&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Функция Change Display поддерживает возможность передать на другие устройства видео, фотоснимки и музыкальные треки через Wi-Fi.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Облачное хранилице Cloud&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Синхронизируйте все свои фотоснимки, документы, контакты и многое другое со всеми своими устройствами, сохранив весь контент на облачном сервисе, доступном в любой точке мира через всемирную паутину.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6810 Galaxy Fame Pure White</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6810-galaxy-fame-pure-white</t>
+  </si>
+  <si>
+    <t>12040_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S7500 ABA Galaxy Ace Plus Dark Blue</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7500-aba-galaxy-ace-plus-dark-blue</t>
+  </si>
+  <si>
+    <t>12041_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt; OS Android 2.3.6; CPU 1.0 Ghz, ROM 3 GB, RAM 512 MB, microSD&lt;/li&gt;&lt;li&gt; Дисплей 3.65, (320х480), TFT&lt;/li&gt;&lt;li&gt; Камера 5 MPx, 3G, GPRS, Bluetooth, EDGE, Wi-Fi, USB&lt;/li&gt;&lt;li&gt; Аккумулятор 1300 mAh; габариты 114.7 x 62.5 x 11.3 мм&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Ключевые характеристики:&lt;/strong&gt;&lt;/p&gt;&lt;ul&gt;    &lt;li&gt;Операционная система: Android 2.3.6 (Gingerbread)&lt;/li&gt;    &lt;li&gt;Стандарты: GSM: 850/900/1800/1900, UMTS: 900/2100&lt;/li&gt;    &lt;li&gt;Основной дисплей: TFT, 3.65, сенсорный, 320 x 480 пикселей, 262 тыс. цветов&lt;/li&gt;    &lt;li&gt;Встроенная 4 GB&lt;/li&gt;    &lt;li&gt;Слот расширения для карт памяти microSDHC&lt;/li&gt;    &lt;li&gt;Передача данных: 3G, GPRS, Bluetooth, EDGE, Wi-Fi, USB&lt;/li&gt;    &lt;li&gt;Фотокамера: 5.0 мегапикселей&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;&lt;em&gt;Комплектация:&lt;/em&gt; смартфон, аккумулятор, З/У, кабель подключения к ПЭВМ типа PC, руководство пользователя.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S7500 CWA Galaxy Ace Plus Chic White</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7500-cwa-galaxy-ace-plus-chic-white</t>
+  </si>
+  <si>
+    <t>12042_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S7530 Omnia M EAA Deep Grey</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7530-omnia-m-eaa-deep-grey</t>
+  </si>
+  <si>
+    <t>12043_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt; OS Windows Phone 7.5 Tango; CPU 1.0 Ghz, ROM 4 GB, RAM 384 MB&lt;/li&gt;&lt;li&gt; Дисплей 4, WVGA (800x480), Super AMOLED, G-сенсор&lt;/li&gt;&lt;li&gt; Камера 5 MPx + AF, VGA для видеозвонка, Bluetooth  2.1, A-GPS, WiFi 802.11 b/g/n&lt;/li&gt;&lt;li&gt; Аккумулятор 1500 mAh; габариты 121.6 x 64.1 x 10.5 мм&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Яркость. Люди. Общение&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Удивительно яркий и огромный 4 Super AMOLED дисплей. Исключительно яркие и чистые цвета изображения. Благодаря отсутствию бликов вы можете легко видеть текст даже на ярком солнце. Низкое энергопотребление позволяет на 20% увеличить время работы телефона от батареи.&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Простота общения и обмена информацией&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Это самое важное требование современной жизни реализован в телефонах Samsung, поддерживающих социальные сети и основные сервисы коммуникации Приложение Family Story позволяет обмениваться в близкими фотоснимками, описаниями знаменательных событий через облачное хранилище, благодаря чему доступ к этой информации можно получить с любого устройства в любое время. Функция ChatON - это универсальное средство общения позволяет обмениваться сообщениями, осуществлять групповой чат и обмен контентом. (Приложение Family story можно загрузить на телефон)&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Тонкий изысканный дизайн&lt;/strong&gt;&lt;/p&gt;&lt;p&gt;Строгий дизайн отличается совершенными пропорциями, телефон удобно лежит в руке и очень компактный. Лицевая панель оснащена большим 4” экраном, а комфортная задняя панель позволяет надежно удерживать телефон в руке. Тонкий, простой и изысканный телефон – это все, о чем можно&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Windows Phone 7.5</t>
+  </si>
+  <si>
     <t>Смартфон Samsung GT-S7562 Galaxy S Duos ZKA Black</t>
   </si>
   <si>
     <t>smartfon-samsung-gt-s7562-galaxy-s-duos-zka-black</t>
   </si>
   <si>
-    <t>Смартфон Samsung GT-S7530 Omnia M EAA Deep Grey</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s7530-omnia-m-eaa-deep-grey</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S7500 CWA Galaxy Ace Plus Chic White</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s7500-cwa-galaxy-ace-plus-chic-white</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S7500 ABA Galaxy Ace Plus Dark Blue</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s7500-aba-galaxy-ace-plus-dark-blue</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6810 Galaxy Fame Pure White</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6810-galaxy-fame-pure-white</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6810 Galaxy Fame Metallic Blue</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6810-galaxy-fame-metallic-blue</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6802 ZYA Galaxy Ace Duos Yellow</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-zya-galaxy-ace-duos-yellow</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6802 ZIA Galaxy Ace Duos Pink</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-zia-galaxy-ace-duos-pink</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6802 TIZ Galaxy Ace Duos Romantic Pink La Fleur</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-tiz-galaxy-ace-duos-romantic-pink-la-fleur</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6802 Galaxy Ace Duos ZKA Black</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-galaxy-ace-duos-zka-black</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6802 CWA Galaxy Ace Duos Сhic White</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-cwa-galaxy-ace-duos-shic-white</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6802 AKA Galaxy Ace Duos Metallic Black</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-aka-galaxy-ace-duos-metallic-black</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6500 Galaxy Mini 2 ZYD Yellow</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6500-galaxy-mini-2-zyd-yellow</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6500 Galaxy Mini 2 RWD Ceramic White</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6500-galaxy-mini-2-rwd-ceramic-white</t>
+    <t>12045_main_origin.jpg</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;OS Android 4; CPU 1 Ghz, ROM 4 GB, microSD до 32 GB&lt;/li&gt;
+&lt;li&gt;Дисплей 4, WVGA (800x480),TFT&lt;/li&gt;
+&lt;li&gt;Камера 5 MPx + AF, Bluetooth, WI-FI, GPS&lt;/li&gt;
+&lt;li&gt;Аккумулятор 1500 mAh; габариты 121.5 x 63.1 x 10.5 мм&lt;/li&gt;
+&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Сервис Dual SIM Always On&lt;br /&gt;&lt;/strong&gt;Благодаря поддержке двух SIM-карт с сервисом Dual SIM Always On* вы не пропустите ни одного звонка. Путешествуете по разным странам? Пользуетесь Интернетом? Уже общаетесь с другим собеседником по одной из SIM-карт? Никаких проблем! Функция поддержки двух SIM-карт обеспечивает свободу выбора, позволяя выбирать различных сотовых операторов с различными зонами покрытия и разными тарифными планами или просто отделять вызовы по работе от личных звонков. Вы не пропустите ни одного вызова во время подключения к Интернету и даже при разговоре по другой SIM-карте.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Большой 4 дисплей - это незабываемые впечатления от развлечений&lt;br /&gt;&lt;/strong&gt;Теперь, при попытке прочитать текст вам не надо будет прищуриваться! При просмотре фотографий и видео от вас теперь не ускользнет ни одна деталь! Большой 4 дисплей обеспечивает комфортный просмотр веб-страниц, длинных электронных писем, фотографий и видео. И все это отличается кристально-чистым изображением.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Оптимизированная платформа Android 4.0&lt;br /&gt;&lt;/strong&gt;Смартфон оснащен современной платформой Android 4.0 Ice Cream Sadwich. Множество функций телефона, улучшенная графика, более организованные компоновки, делают выполнение каждой задачи более приятной и yдобной.&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Быстрый и мощный&lt;br /&gt;&lt;/strong&gt;Процессор с тактовой частотой 1 ГГц легко и быстро справляется с самыми сложными операциями. Вы можете быстро переключаться между приложениями в режиме многозадачности! С этим смартфоном вам не придется больше ждать!&lt;br /&gt;&lt;br /&gt;&lt;strong&gt;Chat On на большом и ярком дисплее с диагональю 4 дюйма&lt;br /&gt;&lt;/strong&gt;Сервис ChatON позволяет вам легко общаться с друзьями и это больше, чем просто обмен сообщениями. Этот сервис поддерживает обмен мультимедийными файлами или групповой чат со всеми друзьями, и позволяет даже создавать анимированные сообщения!&lt;/p&gt;</t>
   </si>
   <si>
     <t>Мобильный телефон Sony Xperia V LT25i Black 124124</t>
@@ -509,7 +1243,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +1251,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -539,435 +1273,1463 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>4000</v>
+        <v>3562</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>21</v>
+      </c>
+      <c r="F2">
         <v>20011</v>
       </c>
-      <c r="E2"/>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+      <c r="G2"/>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2"/>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>3629</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>20018</v>
       </c>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
       <c r="G3"/>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>7595</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>20019</v>
       </c>
-      <c r="E4"/>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
       <c r="G4"/>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4"/>
+      <c r="P4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C5">
         <v>4999</v>
       </c>
       <c r="D5">
+        <v>5400</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
         <v>20020</v>
       </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
       <c r="G5"/>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>5295</v>
       </c>
       <c r="D6">
+        <v>6000</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
         <v>20021</v>
       </c>
-      <c r="E6"/>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
       <c r="G6"/>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>5445</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="F7">
         <v>20023</v>
       </c>
-      <c r="E7"/>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
       <c r="G7"/>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C8">
-        <v>285</v>
+        <v>156</v>
       </c>
       <c r="D8">
-        <v>20205</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>20190</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8"/>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8">
+        <v>3.2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C9">
+        <v>156</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>20191</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9">
+        <v>3.2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
         <v>100</v>
       </c>
-      <c r="D9">
-        <v>20203</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9"/>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>20192</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10"/>
+      <c r="P10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>78</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10">
-        <v>285</v>
-      </c>
-      <c r="D10">
-        <v>20202</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10"/>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>20193</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11">
+        <v>2</v>
+      </c>
+      <c r="O11"/>
+      <c r="P11" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>212</v>
-      </c>
-      <c r="D11">
-        <v>20201</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11"/>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>210</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>20194</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12"/>
+      <c r="P12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12" t="s">
+        <v>78</v>
+      </c>
+      <c r="W12">
+        <v>2</v>
+      </c>
+      <c r="X12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13">
+        <v>210</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>20195</v>
+      </c>
+      <c r="G13" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>215</v>
-      </c>
-      <c r="D12">
-        <v>20200</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12"/>
+      <c r="L13"/>
+      <c r="M13" t="s">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13"/>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>78</v>
+      </c>
+      <c r="W13">
+        <v>2</v>
+      </c>
+      <c r="X13" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13">
-        <v>215</v>
-      </c>
-      <c r="D13">
-        <v>20199</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="C14">
         <v>210</v>
       </c>
       <c r="D14">
-        <v>20198</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>20196</v>
+      </c>
+      <c r="G14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14"/>
+      <c r="P14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>78</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C15">
         <v>210</v>
       </c>
       <c r="D15">
-        <v>20196</v>
-      </c>
-      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>20198</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15"/>
+      <c r="P15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>78</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15"/>
+      <c r="Z15" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="C16">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D16">
-        <v>20195</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16"/>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>20199</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16"/>
+      <c r="P16" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16" t="s">
+        <v>78</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17">
+        <v>215</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>20200</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>210</v>
-      </c>
-      <c r="D17">
-        <v>20194</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17">
+        <v>2</v>
+      </c>
+      <c r="O17"/>
+      <c r="P17" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>111</v>
+      </c>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17" t="s">
+        <v>78</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18">
+        <v>212</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>20201</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17"/>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18"/>
+      <c r="P18" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>119</v>
+      </c>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18">
+        <v>3.7</v>
+      </c>
+      <c r="V18" t="s">
+        <v>78</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18">
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19">
+        <v>285</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>20202</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19"/>
+      <c r="P19" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>119</v>
+      </c>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19">
+        <v>3.7</v>
+      </c>
+      <c r="V19" t="s">
+        <v>78</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20">
         <v>100</v>
       </c>
-      <c r="D18">
-        <v>20193</v>
-      </c>
-      <c r="E18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18"/>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>20203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" t="s">
+        <v>125</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20"/>
+      <c r="P20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>127</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20">
+        <v>4</v>
+      </c>
+      <c r="V20" t="s">
+        <v>33</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>100</v>
-      </c>
-      <c r="D19">
-        <v>20192</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19"/>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21">
+        <v>285</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>20205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21" t="s">
+        <v>131</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21"/>
+      <c r="P21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>133</v>
+      </c>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21" t="s">
+        <v>33</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20">
-        <v>156</v>
-      </c>
-      <c r="D20">
-        <v>20191</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21">
-        <v>156</v>
-      </c>
-      <c r="D21">
-        <v>20190</v>
-      </c>
-      <c r="E21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22"/>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="G22"/>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
   <si>
     <t>name</t>
   </si>
@@ -35,19 +35,421 @@
     <t>cat</t>
   </si>
   <si>
+    <t>Спальный мешок EASY CAMP Chakra Black</t>
+  </si>
+  <si>
+    <t>spalnyi-meshok-easy-camp-chakra-black</t>
+  </si>
+  <si>
+    <t>Активный отдых и туризм</t>
+  </si>
+  <si>
+    <t>Спальный мешок EASY CAMP Atlanta Plus</t>
+  </si>
+  <si>
+    <t>spalnyi-meshok-easy-camp-atlanta-plus</t>
+  </si>
+  <si>
+    <t>Вкладыш для спального мешка EASY CAMP Cotton Travel Sheet - Rectangular</t>
+  </si>
+  <si>
+    <t>vkladysh-dlia-spalnogo-meshka-easy-camp-cotton-travel-sheet-rectangular</t>
+  </si>
+  <si>
+    <t>Спальный мешок EASY CAMP Chakra Pink</t>
+  </si>
+  <si>
+    <t>spalnyi-meshok-easy-camp-chakra-pink</t>
+  </si>
+  <si>
+    <t>Вкладыш для спального мешка EASY CAMP Cotton Travel Sheet - Mummy</t>
+  </si>
+  <si>
+    <t>vkladysh-dlia-spalnogo-meshka-easy-camp-cotton-travel-sheet-mummy</t>
+  </si>
+  <si>
+    <t>Вставка для беременных в зимнюю слингокуртку (ВБЗ-010.00) ТМ Katinka</t>
+  </si>
+  <si>
+    <t>mashina-z-pidiomnim-kranom-na-radiokeruvanni</t>
+  </si>
+  <si>
+    <t>Детские товары</t>
+  </si>
+  <si>
+    <t>Вставка для беременных в демисезонную слингокуртку (ВБДУ-010.00) ТМ Katinka</t>
+  </si>
+  <si>
+    <t>kolesnyi-pogruzchik-na-radioupravlenii</t>
+  </si>
+  <si>
+    <t>Демисезонная мужская слингокуртка для папы. Размеры 44, 46, 48, 50, 52, 54 (ДСП-010.00) ТМ Katinka</t>
+  </si>
+  <si>
+    <t>gusenichnii-kran-na-radiokeruvanni</t>
+  </si>
+  <si>
+    <t>Легкая универсальная слингокуртка-ветровка 3 в 1 Белый-розовый, размеры S, M, L (ЛС-010.00) ТМ Katinka</t>
+  </si>
+  <si>
+    <t>igrashka-poprigunchik-tiny-smarts-jumpy</t>
+  </si>
+  <si>
+    <t>Зимняя универсальная слингокуртка 5 в 1 с возможностью ношения за спиной. (ЗС-020.00) ТМ Katinka</t>
+  </si>
+  <si>
+    <t>karernii-samoskid-na-radiokeruvanni</t>
+  </si>
+  <si>
+    <t>АКУСТИЧНА ГІТАРА СЕРІЇ STANDARD D350BG</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-as1120br</t>
+  </si>
+  <si>
+    <t>Музыкальные инструменты</t>
+  </si>
+  <si>
+    <t>Електрогітара серії "BADWATER" AL820CKBW</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-al820ckbw</t>
+  </si>
+  <si>
+    <t>АКУСТИЧНА ГІТАРА СЕРІЇ STANDARD D350G</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-as820ckbk</t>
+  </si>
+  <si>
+    <t>АКУСТИЧНА ГІТАРА СЕРІЇ СONCORDA CD550</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-al790ms</t>
+  </si>
+  <si>
+    <t>АКУСТИЧНА ГІТАРА СЕРІЇ STANDARD D350CEG</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-as820br</t>
+  </si>
+  <si>
+    <t>АКУСТИЧНА ГІТАРА СЕРІЇ STANDARD D350CEBG</t>
+  </si>
+  <si>
+    <t>elektrogitara-seriyi-badwater-as1120wo</t>
+  </si>
+  <si>
+    <t>3D LED-телевизор Samsung UE32F6400AKXUA</t>
+  </si>
+  <si>
+    <t>samsung-domashni-kinoteatr-ht-e330k-ru</t>
+  </si>
+  <si>
+    <t>Домашнее видео</t>
+  </si>
+  <si>
+    <t>3D LED-телевизор Samsung UE32F6100AKXUA</t>
+  </si>
+  <si>
+    <t>3d-ochkii-besprovodnoe-ustroistvo-samsungssg-4100gb-ru</t>
+  </si>
+  <si>
+    <t>3D LED-телевизор Philips 47PFL7008S/12</t>
+  </si>
+  <si>
+    <t>televizory-kakoi-vybrat</t>
+  </si>
+  <si>
+    <t>3D LED-телевизор Philips 46PFL8008S/60</t>
+  </si>
+  <si>
+    <t>3d-led-televizor-samsung-ue50es6907-uxua</t>
+  </si>
+  <si>
+    <t>3D LED-телевизор Samsung UE32F6330AKXUA</t>
+  </si>
+  <si>
+    <t>plazmennyi-televizor-samsung-ps-51e497</t>
+  </si>
+  <si>
+    <t>3D LED телевизор Samsung UE65ES8007UXUA</t>
+  </si>
+  <si>
+    <t>3d-led-televizor-samsung-ue65es8007uxua</t>
+  </si>
+  <si>
+    <t>30 001</t>
+  </si>
+  <si>
+    <t>ЖК-телевизор BBK LEM2249HD Black</t>
+  </si>
+  <si>
+    <t>zhk-televizor-bbk-lem2249hd-black</t>
+  </si>
+  <si>
+    <t>MP3 / MP4-плеер Sony Walkman NWZ-B172 2GB black</t>
+  </si>
+  <si>
+    <t>mp3-mp4-pleer-sony-walkman-nwz-b172-2gb-black</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/MP3-MP4 плееры</t>
+  </si>
+  <si>
+    <t>MP3 / MP4-плеер TEXET T-979HD 4GB</t>
+  </si>
+  <si>
+    <t>mp3-mp4-pleer-texet-t-979hd-4gb</t>
+  </si>
+  <si>
+    <t>MP3 / MP4-плеер Apple iPod touch 4 Gen 8 GB</t>
+  </si>
+  <si>
+    <t>mp3-mp4-pleer-apple-ipod-touch-4-gen-8-gb</t>
+  </si>
+  <si>
+    <t>Assistant АМ-09404 4GB</t>
+  </si>
+  <si>
+    <t>assistant-am-09404-4gb</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly B300 Duos Grey</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-b300-duos-grey</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/Телефоны/Мобильные телефоны</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E210 Сhrome</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e210-shrome</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E154 Dual Sim Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e154-dual-sim-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E141 TV Dual SIM Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e141-tv-dual-sim-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly DS103 Duos Grey</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ds103-duos-grey</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E200 Duos Metalic</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e200-duos-metalic</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E145 TV Dual Sim White</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e145-tv-dual-sim-white</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E133 Duos White</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e133-duos-white</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E185 Black Bronze</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e185-black-bronze</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E190 Duos Wi-Fi Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e190-duos-wi-fi-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly Ezzy Flip Dual Sim Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ezzy-flip-dual-sim-black</t>
+  </si>
+  <si>
+    <t>Nokia Asha 302 White</t>
+  </si>
+  <si>
+    <t>nokia-asha-302-white</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Alcatel DS 10.60 Dual SIM</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-alcatel-ds-1060-dual-sim</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E176 Duos Silver</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e176-duos-silver</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E171 Duos High Glossy Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e171-duos-high-glossy-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly EZZY Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ezzy-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly DS103D Duos Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-ds103d-duos-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E145 TV Dual Sim Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e145-tv-dual-sim-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E154 Dual Sim Silver</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e154-dual-sim-silver</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Fly E141 TV Dual SIM White</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-fly-e141-tv-dual-sim-white</t>
+  </si>
+  <si>
+    <t>Nokia Lumia 920 White</t>
+  </si>
+  <si>
+    <t>nokia-lumia-920-white</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/Телефоны/Смартфоны</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Samsung Galaxy Grand Duos I9082 elegant white</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-samsung-galaxy-grand-duos-i9082-elegant-white</t>
+  </si>
+  <si>
     <t>HTC One SV White</t>
   </si>
   <si>
     <t>htc-one-sv-white</t>
   </si>
   <si>
-    <t>Телефония, МР3-плееры, GPS/Телефоны/Смартфоны</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Samsung Galaxy Grand Duos I9082 elegant white</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-samsung-galaxy-grand-duos-i9082-elegant-white</t>
+    <t>Смартфон Samsung GT-S7562 Galaxy S Duos ZKA Black</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7562-galaxy-s-duos-zka-black</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6810 Galaxy Fame Metallic Blue</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6810-galaxy-fame-metallic-blue</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 CWA Galaxy Ace Duos Сhic White</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-cwa-galaxy-ace-duos-shic-white</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S7530 Omnia M EAA Deep Grey</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7530-omnia-m-eaa-deep-grey</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 ZYA Galaxy Ace Duos Yellow</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-zya-galaxy-ace-duos-yellow</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 AKA Galaxy Ace Duos Metallic Black</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-aka-galaxy-ace-duos-metallic-black</t>
+  </si>
+  <si>
+    <t>Мобильный телефон LG Nexus 4 E960 black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-lg-nexus-4-e960-black</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S7500 CWA Galaxy Ace Plus Chic White</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7500-cwa-galaxy-ace-plus-chic-white</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Sony Xperia V LT25i Black 124124</t>
+  </si>
+  <si>
+    <t>Mobilnyi-telefon-sony-xperia-v-lt25i-black111</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 ZIA Galaxy Ace Duos Pink</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-zia-galaxy-ace-duos-pink</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6500 Galaxy Mini 2 ZYD Yellow</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6500-galaxy-mini-2-zyd-yellow</t>
+  </si>
+  <si>
+    <t>Мобильный телефон Sony Xperia V LT25i Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-sony-xperia-v-lt25i-black</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S7500 ABA Galaxy Ace Plus Dark Blue</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s7500-aba-galaxy-ace-plus-dark-blue</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6802 TIZ Galaxy Ace Duos Romantic Pink La Fleur</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6802-tiz-galaxy-ace-duos-romantic-pink-la-fleur</t>
+  </si>
+  <si>
+    <t>Смартфон Samsung GT-S6500 Galaxy Mini 2 RWD Ceramic White</t>
+  </si>
+  <si>
+    <t>smartfon-samsung-gt-s6500-galaxy-mini-2-rwd-ceramic-white</t>
   </si>
   <si>
     <t>Мобильный телефон Sony Xperia Z C6603 Black</t>
@@ -56,115 +458,1162 @@
     <t>mobilnyi-telefon-sony-xperia-z-c6603-black</t>
   </si>
   <si>
-    <t>Мобильный телефон Sony Xperia V LT25i Black</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-sony-xperia-v-lt25i-black</t>
-  </si>
-  <si>
-    <t>Мобильный телефон LG Nexus 4 E960 black</t>
-  </si>
-  <si>
-    <t>mobilnyi-telefon-lg-nexus-4-e960-black</t>
-  </si>
-  <si>
-    <t>Nokia Lumia 920 White</t>
-  </si>
-  <si>
-    <t>nokia-lumia-920-white</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S7562 Galaxy S Duos ZKA Black</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s7562-galaxy-s-duos-zka-black</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S7530 Omnia M EAA Deep Grey</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s7530-omnia-m-eaa-deep-grey</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S7500 CWA Galaxy Ace Plus Chic White</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s7500-cwa-galaxy-ace-plus-chic-white</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S7500 ABA Galaxy Ace Plus Dark Blue</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s7500-aba-galaxy-ace-plus-dark-blue</t>
-  </si>
-  <si>
     <t>Смартфон Samsung GT-S6810 Galaxy Fame Pure White</t>
   </si>
   <si>
     <t>smartfon-samsung-gt-s6810-galaxy-fame-pure-white</t>
   </si>
   <si>
-    <t>Смартфон Samsung GT-S6810 Galaxy Fame Metallic Blue</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6810-galaxy-fame-metallic-blue</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6802 ZYA Galaxy Ace Duos Yellow</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-zya-galaxy-ace-duos-yellow</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6802 ZIA Galaxy Ace Duos Pink</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-zia-galaxy-ace-duos-pink</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6802 TIZ Galaxy Ace Duos Romantic Pink La Fleur</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-tiz-galaxy-ace-duos-romantic-pink-la-fleur</t>
-  </si>
-  <si>
     <t>Смартфон Samsung GT-S6802 Galaxy Ace Duos ZKA Black</t>
   </si>
   <si>
     <t>smartfon-samsung-gt-s6802-galaxy-ace-duos-zka-black</t>
   </si>
   <si>
-    <t>Смартфон Samsung GT-S6802 CWA Galaxy Ace Duos Сhic White</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-cwa-galaxy-ace-duos-shic-white</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6802 AKA Galaxy Ace Duos Metallic Black</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6802-aka-galaxy-ace-duos-metallic-black</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6500 Galaxy Mini 2 ZYD Yellow</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6500-galaxy-mini-2-zyd-yellow</t>
-  </si>
-  <si>
-    <t>Смартфон Samsung GT-S6500 Galaxy Mini 2 RWD Ceramic White</t>
-  </si>
-  <si>
-    <t>smartfon-samsung-gt-s6500-galaxy-mini-2-rwd-ceramic-white</t>
-  </si>
-  <si>
-    <t>Мобильный телефон Sony Xperia V LT25i Black 124124</t>
-  </si>
-  <si>
-    <t>Mobilnyi-telefon-sony-xperia-v-lt25i-black111</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Гарнитура  Jabra EASYGO</t>
+  </si>
+  <si>
+    <t>garnitura-jabra-easygo</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/Телефоны/Bluetooth гарнитуры</t>
+  </si>
+  <si>
+    <t>Гарнитура  Nokia Headset Bluetooth BH-110 Black</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-nokia-headset-bluetooth-bh-110-black</t>
+  </si>
+  <si>
+    <t>Комплект свободные руки Nokia Headset Bluetooth BH-110 Black</t>
+  </si>
+  <si>
+    <t>Гарнитура  Nokia BH-806</t>
+  </si>
+  <si>
+    <t>bluetooth-garnitura-nokia-bh-806</t>
+  </si>
+  <si>
+    <t>Гарнитура Bluetooth Nokia BH-111 black</t>
+  </si>
+  <si>
+    <t>garnitura-bluetooth-nokia-bh-111-black</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung BHM 1200 black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-bhm-1200-black</t>
+  </si>
+  <si>
+    <t>Гарнитура Nokia Bluetooth Headset BH-104 Black</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-nokia-bluetooth-headset-bh-104-black</t>
+  </si>
+  <si>
+    <t>Комплект свободные руки Nokia Bluetooth Headset BH-104 Black</t>
+  </si>
+  <si>
+    <t>Гарнитура Nokia BH-505</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-bh-505</t>
+  </si>
+  <si>
+    <t>Гарнитура  Samsung BHM1200EBEGSEK Black</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-samsung-bhm1200ebegsek-black</t>
+  </si>
+  <si>
+    <t>Комплект свободные руки Samsung BHM1200EBEGSEK Black</t>
+  </si>
+  <si>
+    <t>Гарнитура Jabra BT2045</t>
+  </si>
+  <si>
+    <t>garnitura-jabra-bt2045</t>
+  </si>
+  <si>
+    <t>Гарнитура Jabra Bluetooth Headset  BT 2070</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-jabra-bluetooth-headset-bt-2070</t>
+  </si>
+  <si>
+    <t>Комплект свободные руки Jabra Bluetooth Headset  BT 2070</t>
+  </si>
+  <si>
+    <t>Гарнитура Nokia BH-108</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-bh-108</t>
+  </si>
+  <si>
+    <t>Гарнитура Nokia BH-112 Black</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-bh-112-black</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung AWEP460EBEGSEK Black Bluetooth Headset</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-samsung-awep460ebegsek-black-bluetooth-headset</t>
+  </si>
+  <si>
+    <t>Комплект свободные руки Samsung AWEP460EBEGSEK Black Bluetooth Headset</t>
+  </si>
+  <si>
+    <t>Гарнитура Jabra EASY CALL</t>
+  </si>
+  <si>
+    <t>garnitura-jabra-easy-call</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung BHM1100 black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-bhm1100-black</t>
+  </si>
+  <si>
+    <t>Гарнитура Jabra Bluetooth Headset  BT 2015</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-jabra-bluetooth-headset-bt-2015</t>
+  </si>
+  <si>
+    <t>Комплект свободные руки Jabra Bluetooth Headset  BT 2015</t>
+  </si>
+  <si>
+    <t>Гарнитура Nokia BH-220 black</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-bh-220-black</t>
+  </si>
+  <si>
+    <t>Гарнитура Nokia Headset Bluetooth BH-110 White</t>
+  </si>
+  <si>
+    <t>komplekt-svobodnye-ruki-nokia-headset-bluetooth-bh-110-white</t>
+  </si>
+  <si>
+    <t>Комплект свободные руки Nokia Headset Bluetooth BH-110 White</t>
+  </si>
+  <si>
+    <t>Гарнитура  Nokia BH-108 ice</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-bh-108-ice</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung EHS63ASNBECSTD Black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs63asnbecstd-black</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/Телефоны/Проводные гарнитуры</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung EHS60ENNBECSTD Black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs60ennbecstd-black</t>
+  </si>
+  <si>
+    <t>Гарнитура Nokia WH-701</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-wh-701</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung EHS62ASNWECSTD White</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs62asnwecstd-white</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung EHS60ANNWECSTD White</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs60annwecstd-white</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung EHS62ASN White</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs62asn-white</t>
+  </si>
+  <si>
+    <t>Гарнитура  Nokia HS-47 вакуумная</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-hs-47-vakuumnaia</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung BHS6000 EBECSEK</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-bhs6000-ebecsek</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung EHS62ASNPECSTD Pink</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs62asnpecstd-pink</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung EHS60ANNBECSTD Black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs60annbecstd-black</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung EHS62ASNKECSTD Blue</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs62asnkecstd-blue</t>
+  </si>
+  <si>
+    <t>Гарнитура HTC RC E240 White</t>
+  </si>
+  <si>
+    <t>garnitura-htc-rc-e240-white</t>
+  </si>
+  <si>
+    <t>Гарнитура HTC RC E190 black</t>
+  </si>
+  <si>
+    <t>garnitura-htc-rc-e190-black</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung P1000 EHS-60 black</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-p1000-ehs-60-black</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung EHS64ASFWECSTD White</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs64asfwecstd-white</t>
+  </si>
+  <si>
+    <t>Гарнитура Samsung EHS60ENNWECSTD White</t>
+  </si>
+  <si>
+    <t>garnitura-samsung-ehs60ennwecstd-white</t>
+  </si>
+  <si>
+    <t>Гарнитура HTC RC E240 Black</t>
+  </si>
+  <si>
+    <t>garnitura-htc-rc-e240-black</t>
+  </si>
+  <si>
+    <t>Гарнитура Nokia WH-205 stereo</t>
+  </si>
+  <si>
+    <t>garnitura-nokia-wh-205-stereo</t>
+  </si>
+  <si>
+    <t>Аккумулятор Samsung EB-K1A2EWEGSTD White</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb-k1a2ewegstd-white</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/Аксессуары/Аккумуляторы</t>
+  </si>
+  <si>
+    <t>Аккумулятор к телефону Nokia BL-4C</t>
+  </si>
+  <si>
+    <t>akkumuliator-k-telefonu-nokia-bl-4c</t>
+  </si>
+  <si>
+    <t>Аккумулятор Samsung EB615268VUCSTD Black N7000</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb615268vucstd-black-n7000</t>
+  </si>
+  <si>
+    <t>Аккумулятор Samsung EB-K1A2EBEGSTD Black</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb-k1a2ebegstd-black</t>
+  </si>
+  <si>
+    <t>Аккумулятор Samsung EB595675LUCSTD N7100 Black</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb595675lucstd-n7100-black</t>
+  </si>
+  <si>
+    <t>Аккумулятор Samsung EB-F1A2GBUCSTD I9100 Black</t>
+  </si>
+  <si>
+    <t>mobilnyi-telefon-samsung-gt-s5610-msa-metallic-silver</t>
+  </si>
+  <si>
+    <t>Аккумулятор Samsung EB-L1G6LLUCSTD I9300 Black</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb-l1g6llucstd-i9300-black</t>
+  </si>
+  <si>
+    <t>Аккумулятор Samsung EB-L1F2HVUCSTD Black I9250</t>
+  </si>
+  <si>
+    <t>akkumuliator-samsung-eb-l1f2hvucstd-black-i9250</t>
+  </si>
+  <si>
+    <t>Подставка-держатель Samsung EB-H1J9VNEGSTD N7100 White (+ аккумулятор)</t>
+  </si>
+  <si>
+    <t>podstavka-derzhatel-samsung-eb-h1j9vnegstd-n7100-white-akkumuliator</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/Аксессуары/Зарядные устройства</t>
+  </si>
+  <si>
+    <t>Зарядное устройство Samsung ETA0U10EBECSTD Black</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eta0u10ebecstd-black</t>
+  </si>
+  <si>
+    <t>Автомобильное зарядное устройство Samsung ECA-P10CBECSTD Black</t>
+  </si>
+  <si>
+    <t>vneshnii-akkumuliator-samsung-eeb-ei1cwegstd-white</t>
+  </si>
+  <si>
+    <t>Подставка с зарядным устройством Samsung EBH1A2USBECSTD Black</t>
+  </si>
+  <si>
+    <t>podstavka-s-zariadnym-ustroistvom-samsung-ebh1a2usbecstd-black</t>
+  </si>
+  <si>
+    <t>Зарядное устройство Samsung ETA-U90EWEGSTD N7100 White</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eta-u90ewegstd-n7100-white</t>
+  </si>
+  <si>
+    <t>Зарядное устройство Nokia AC-4E</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-nokia-ac-4e</t>
+  </si>
+  <si>
+    <t>Зарядное устройство-подставка Samsung EDD-D100WEGSTD TAB/TAB2 desktop dock White</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-podstavka-samsung-edd-d100wegstd-tab-tab2-desktop-dock-white</t>
+  </si>
+  <si>
+    <t>Зарядное устройство Samsung ETA-U90EBEGSTD N7100 Black</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eta-u90ebegstd-n7100-black</t>
+  </si>
+  <si>
+    <t>Зарядное устройство UFO EC-004 5V (+ 2 адаптора Nokia Kit)</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-ufo-ec-004-5v-2-adaptora-nokia-kit</t>
+  </si>
+  <si>
+    <t>Зарядное устройство Samsung ETA-P11EBEGSTD Galaxy P3100/P5100/N8000 Black</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eta-p11ebegstd-galaxy-p3100-p5100-n8000-black</t>
+  </si>
+  <si>
+    <t>Зарядное устройство Samsung ETA0U80EBEGSTD Black N7000</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eta0u80ebegstd-black-n7000</t>
+  </si>
+  <si>
+    <t>Зарядное устройство Samsung ECA-U16CBEGSTD N7000 Black</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-samsung-eca-u16cbegstd-n7000-black</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 4 GB Class 4 Retail 9 (+ адаптер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-4-gb-class-4-retail-9-adapter</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/Аксессуары/Карты памяти</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 32 GB Class 10 (+ адаптер Retail 10)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-32-gb-class-10-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSD 8 GB (+ адаптер и USB-кадтридер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsd-8-gb-adapter-i-usb-kadtrider</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 4 GB Class 4 (+ адаптер Retail 10)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-4-gb-class-4-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 16 GB Class 4 (+ адаптер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-16-gb-class-4-adapter</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSD 4 GB (+ адаптер и USB-кадтридер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsd-4-gb-adapter-i-usb-kadtrider</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 8 GB Class 4 (+ адаптер Retail 10)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-8-gb-class-4-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 32 GB Class 4 (+ адаптер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-32-gb-class-4-adapter</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 16 GB Class 10 UHS I (+ адаптер Retail 10)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-16-gb-class-10-uhs-i-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSD 2 GB Retail 9 (+ адаптер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsd-2-gb-retail-9-adapter</t>
+  </si>
+  <si>
+    <t>Карта памяти Transcend microSDHC 16 GB Class 10 UHS-I Ultimate (X600) (+ адаптер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-transcend-microsdhc-16-gb-class-10-uhs-i-ultimate-x600-adapter</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 8 GB Class 10 (+ адаптер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-8-gb-class-10-adapter</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 32 GB Class 10 UHS I (+ адаптер Retail 10)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-32-gb-class-10-uhs-i-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 16 GB Class 10 (+ адаптер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-16-gb-class-10-adapter</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSD 2 GB (+ адаптер Retail 10)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsd-2-gb-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 8 GB Class 10 (+ адаптер Retail 10)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-8-gb-class-10-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>Карта памяти Kingston microSD 16 Gb (SDC4/16GB)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-kingston-microsd-16-gb-sdc4-16gb</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 32 GB Class 10 (+адаптер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-32-gb-class-10-adapter</t>
+  </si>
+  <si>
+    <t>Карта памяти GOODRAM microSDHC 16 GB Class 10 (+ адаптер Retail 10)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-goodram-microsdhc-16-gb-class-10-adapter-retail-10</t>
+  </si>
+  <si>
+    <t>Карта памяти Transcend microSDHC 32 GB Class 10 UHS-I Ultimate (X600) (+ адаптер)</t>
+  </si>
+  <si>
+    <t>karta-pamiati-transcend-microsdhc-32-gb-class-10-uhs-i-ultimate-x600-adapter</t>
+  </si>
+  <si>
+    <t>Защитная пленка HTC  P840 для Desire</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-p840-dlia-desire</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/Аксессуары/Защитные пленки</t>
+  </si>
+  <si>
+    <t>Защитная пленка Screen Ward Samsung S6102</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-screen-ward-samsung-s6102</t>
+  </si>
+  <si>
+    <t>Защитная пленка Samsung i8160</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-i8160</t>
+  </si>
+  <si>
+    <t>Защитная пленка  Nokia 302</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-nokia-302</t>
+  </si>
+  <si>
+    <t>Защитная пленка Drobak Sony Xperia J ST26</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-drobak-sony-xperia-j-st26</t>
+  </si>
+  <si>
+    <t>Защитная пленка Samsung i9300 матовая</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-i9300-matovaia</t>
+  </si>
+  <si>
+    <t>Защитная пленка Samsung Wave Y S5380</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-wave-y-s5380</t>
+  </si>
+  <si>
+    <t>Защитная пленка HTC  P870 для WP 8X</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-p870-dlia-wp-8x</t>
+  </si>
+  <si>
+    <t>Защитная пленка Drobak Samsung I9070</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-drobak-samsung-i9070</t>
+  </si>
+  <si>
+    <t>Защитная пленка Samsung ETC-P1G5CEGSTD P3100/P3110</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-etc-p1g5cegstd-p3100-p3110</t>
+  </si>
+  <si>
+    <t>Защитная пленка HTC SP P910</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-sp-p910</t>
+  </si>
+  <si>
+    <t>Защитная пленка Screen Ward Samsung S5660</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-screen-ward-samsung-s5660</t>
+  </si>
+  <si>
+    <t>Защитная пленка Nokia Asha 311</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-nokia-asha-311</t>
+  </si>
+  <si>
+    <t>Защитная пленка HTC P730 для One X</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-p730-dlia-one-x</t>
+  </si>
+  <si>
+    <t>Защитная пленка для Samsung  I9300</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-dlia-samsung-i9300</t>
+  </si>
+  <si>
+    <t>Защитная пленка SAMSUNG N7100</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-n7100</t>
+  </si>
+  <si>
+    <t>Защитная пленка HTC SP P890 для WP8S (2шт)</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-sp-p890-dlia-wp8s-2sht</t>
+  </si>
+  <si>
+    <t>Защитная пленка  Drobak Samsung S7562</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-drobak-samsung-s7562</t>
+  </si>
+  <si>
+    <t>Защитная пленка Samsung S7562</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-samsung-s7562</t>
+  </si>
+  <si>
+    <t>Защитная пленка HTC SP P900 для One SV (2шт)</t>
+  </si>
+  <si>
+    <t>zashchitnaia-plenka-htc-sp-p900-dlia-one-sv-2sht</t>
+  </si>
+  <si>
+    <t>MP3 / MP4-плеер Apple iPod touch 5G 32GB black</t>
+  </si>
+  <si>
+    <t>mp3-mp4-pleer-apple-ipod-touch-5g-32gb-black</t>
+  </si>
+  <si>
+    <t>MP3 / MP4-плеер Apple iPod touch 5G 32GB red</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/MP3-MP4 плееры/Apple iPod и аксессуары</t>
+  </si>
+  <si>
+    <t>MP3 / MP4-плеер Apple iPod touch 5G 32GB pink</t>
+  </si>
+  <si>
+    <t>MP3 / MP4-плеер Apple iPod touch 5G 32GB yellow</t>
+  </si>
+  <si>
+    <t>Зарядное устройство Сетевой адаптер Apple MB707 white</t>
+  </si>
+  <si>
+    <t>zariadnoe-ustroistvo-setevoi-adapter-apple-mb707-white</t>
+  </si>
+  <si>
+    <t>MP3 / MP4-плеер Apple iPod touch 5G 32GB blue</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Iriver E-40 4 GB Dark Gray</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-iriver-e-40-4-gb-dark-gray</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/MP3-MP4 плееры/MP3- и медиаплееры</t>
+  </si>
+  <si>
+    <t>МР3-флэш плеер Ergo Zen Clip 2 GB Black</t>
+  </si>
+  <si>
+    <t>mr3-flesh-pleer-ergo-zen-clip-2-gb-black</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen modern 8 GB Black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-8-gb-black</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen modern 2 GB Black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-2-gb-black</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen Volume 8 GB White</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-volume-8-gb-white</t>
+  </si>
+  <si>
+    <t>МР3-флэш плеер Ergo Zen Little 2 GB Blue</t>
+  </si>
+  <si>
+    <t>mr3-flesh-pleer-ergo-zen-little-2-gb-blue</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen modern 4 GB Red</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-4-gb-red</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen Basic 8 GB Black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-basic-8-gb-black</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen Volume 8 GB Black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-volume-8-gb-black</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen Style 8 GB</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-style-8-gb</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen modern 4 GB Blue</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-4-gb-blue</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen Basic 4 GB White</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-basic-4-gb-white</t>
+  </si>
+  <si>
+    <t>MP3 / MP4-плеера TEXET T-930HD 8Gb</t>
+  </si>
+  <si>
+    <t>mp3-mp4-pleera-texet-t-930hd-8gb</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen Volume 4 GB White</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-volume-4-gb-white</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen Style 4 GB</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-style-4-gb</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen modern 4 GB Black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-4-gb-black</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen Basic 4 GB Blue</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-basic-4-gb-blue</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen Volume 4 GB Black</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-volume-4-gb-black</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen modern 8 GB Red</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-8-gb-red</t>
+  </si>
+  <si>
+    <t>MP3-флэш плеер Ergo Zen modern 2 GB Red</t>
+  </si>
+  <si>
+    <t>mp3-flesh-pleer-ergo-zen-modern-2-gb-red</t>
+  </si>
+  <si>
+    <t>Наушники Panasonic RP-HJE120E-G Green</t>
+  </si>
+  <si>
+    <t>naushniki-panasonic-rp-hje120e-g-green</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/MP3-MP4 плееры/Наушники</t>
+  </si>
+  <si>
+    <t>Наушники Panasonic RP-HJE120E-K</t>
+  </si>
+  <si>
+    <t>naushniki-panasonic-rp-hje120e-k</t>
+  </si>
+  <si>
+    <t>RP-HJE120E-D</t>
+  </si>
+  <si>
+    <t>Наушники Koss KEBDZ Twinz/KE7</t>
+  </si>
+  <si>
+    <t>naushniki-koss-kebdz-twinz-ke7</t>
+  </si>
+  <si>
+    <t>Наушники JVC HA-S200-B</t>
+  </si>
+  <si>
+    <t>naushniki-jvc-ha-s200-b</t>
+  </si>
+  <si>
+    <t>Мультимедийная гарнитура Ergo VM-280 Green</t>
+  </si>
+  <si>
+    <t>multimediinaia-garnitura-ergo-vm-280-green</t>
+  </si>
+  <si>
+    <t>Наушники Ergo VD-390 Gold</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-vd-390-gold</t>
+  </si>
+  <si>
+    <t>RP-HJE120E-P</t>
+  </si>
+  <si>
+    <t>Наушники KOSS Porta Pro</t>
+  </si>
+  <si>
+    <t>naushniki-koss-porta-pro</t>
+  </si>
+  <si>
+    <t>Наушники Ergo Ear VT12</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-ear-vt12</t>
+  </si>
+  <si>
+    <t>Мультимедийная гарнитура Ergo VM-280 Black</t>
+  </si>
+  <si>
+    <t>multimediinaia-garnitura-ergo-vm-280-black</t>
+  </si>
+  <si>
+    <t>Наушники Ergo VD-290 White</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-vd-290-white</t>
+  </si>
+  <si>
+    <t>RP-HJE120E-K</t>
+  </si>
+  <si>
+    <t>Наушники Koss The Plug</t>
+  </si>
+  <si>
+    <t>naushniki-koss-the-plug</t>
+  </si>
+  <si>
+    <t>Наушники Ergo Ear VT11</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-ear-vt11</t>
+  </si>
+  <si>
+    <t>Гарнитура внутриканального типа Ergo VM-901 Black</t>
+  </si>
+  <si>
+    <t>garnitura-vnutrikanalnogo-tipa-ergo-vm-901-black</t>
+  </si>
+  <si>
+    <t>Наушники Ergo VD-290 Black</t>
+  </si>
+  <si>
+    <t>gps-pioneer-e-800</t>
+  </si>
+  <si>
+    <t>Наушник A4Tech MK-690-В</t>
+  </si>
+  <si>
+    <t>naushnik-a4tech-mk-690-v</t>
+  </si>
+  <si>
+    <t>Наушники Sony MDR EX10LP Black</t>
+  </si>
+  <si>
+    <t>naushniki-sony-mdr-ex10lp-black</t>
+  </si>
+  <si>
+    <t>Sony MDR EX10LP Red</t>
+  </si>
+  <si>
+    <t>Наушники  SENNHEISER IE 8i</t>
+  </si>
+  <si>
+    <t>naushniki-sennheiser-ie-8i</t>
+  </si>
+  <si>
+    <t>Наушники Ergo VD-390 Red</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-vd-390-red</t>
+  </si>
+  <si>
+    <t>RP-HJE120E -G</t>
+  </si>
+  <si>
+    <t>Sony MDR EX10LP Black</t>
+  </si>
+  <si>
+    <t>Набор запасных накладных амбушюр KOSS Porta/Sporta Pro(6 шт)</t>
+  </si>
+  <si>
+    <t>nabor-zapasnyh-nakladnyh-ambushiur-koss-porta-sporta-pro6-sht</t>
+  </si>
+  <si>
+    <t>Наушники Ergo VD-390 Grey</t>
+  </si>
+  <si>
+    <t>naushniki-ergo-vd-390-grey</t>
+  </si>
+  <si>
+    <t>Чехол Samsung EFC-1G6SWECSTD I9300 White</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1g6swecstd-i9300-white</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/Телефоны/Чехлы для телефонов</t>
+  </si>
+  <si>
+    <t>Чехол Samsung EFC-1J9BBEGSTD N7100 Black</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1j9bbegstd-n7100-black</t>
+  </si>
+  <si>
+    <t>Чехол-книжка Samsung EFC-1G2NLECSTD Light Blue</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g2nlecstd-light-blue</t>
+  </si>
+  <si>
+    <t>Чехол-книжка Samsung EFC-1G6FGECSTD I9300 Titanium Silver</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g6fgecstd-i9300-titanium-silver</t>
+  </si>
+  <si>
+    <t>Чехол Samsung EFC-1G6WBECSTD Blue</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1g6wbecstd-blue</t>
+  </si>
+  <si>
+    <t>Чехол Samsung EFC-1J9BPEGSTD N7100 Pink</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1j9bpegstd-n7100-pink</t>
+  </si>
+  <si>
+    <t>Чехол-книжка Samsung EFC-1G2NRECSTD Garnet Red</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g2nrecstd-garnet-red</t>
+  </si>
+  <si>
+    <t>Чехол-книжка Samsung EFC-1G6FLECSTD I9300 Light Blue</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g6flecstd-i9300-light-blue</t>
+  </si>
+  <si>
+    <t>Чехол Samsung EFC-1G6WPECSTD I9300 Pink</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1g6wpecstd-i9300-pink</t>
+  </si>
+  <si>
+    <t>Чехол Samsung EFC-1J9BWEGSTD N7100 White</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1j9bwegstd-n7100-white</t>
+  </si>
+  <si>
+    <t>Чехол-книжка Samsung EFC-1G5NGECSTD P3100/P3110 Black</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g5ngecstd-p3100-p3110-black</t>
+  </si>
+  <si>
+    <t>Чехол HTC HC V841</t>
+  </si>
+  <si>
+    <t>chehol-htc-hc-v841</t>
+  </si>
+  <si>
+    <t>Чехол Samsung EFC-1G6WWECSTD White</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1g6wwecstd-white</t>
+  </si>
+  <si>
+    <t>Чехол-книжка Samsung EFC-1G2NAECSTD Amber Brown</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g2naecstd-amber-brown</t>
+  </si>
+  <si>
+    <t>Чехол-книжка Samsung EFC-1G5SGECSTD P3100/P3110 Dark Gray</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g5sgecstd-p3100-p3110-dark-gray</t>
+  </si>
+  <si>
+    <t>Чехол Samsung EFC-1G6PPECSTD I9300 Pink</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1g6ppecstd-i9300-pink</t>
+  </si>
+  <si>
+    <t>Чехол Samsung EFC-1H8NGECSTD P5100/P5110</t>
+  </si>
+  <si>
+    <t>chehol-samsung-efc-1h8ngecstd-p5100-p5110</t>
+  </si>
+  <si>
+    <t>Чехол-книжка Samsung EFC-1G2NGECSTD Dark Gray</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g2ngecstd-dark-gray</t>
+  </si>
+  <si>
+    <t>Чехол-книжка Samsung EFC-1G6FBECSTD I9300 Pebble Blue</t>
+  </si>
+  <si>
+    <t>chehol-knizhka-samsung-efc-1g6fbecstd-i9300-pebble-blue</t>
+  </si>
+  <si>
+    <t>Чехол-футляр Samsung EFC-1J9LDEGSTD N7100 Dark Brown</t>
+  </si>
+  <si>
+    <t>chehol-futliar-samsung-efc-1j9ldegstd-n7100-dark-brown</t>
+  </si>
+  <si>
+    <t>Док-станция Samsung EDD-H1F2BEGSTD Black I9250</t>
+  </si>
+  <si>
+    <t>dok-stantsiia-samsung-edd-h1f2begstd-black-i9250</t>
+  </si>
+  <si>
+    <t>Телефония, МР3-плееры, GPS/Аксессуары/Аксессуары для телефонов</t>
+  </si>
+  <si>
+    <t>Клавиатура Samsung EKD-K11RWEGSER P3100/P3110 Black</t>
+  </si>
+  <si>
+    <t>klaviatura-samsung-ekd-k11rwegser-p3100-p3110-black</t>
+  </si>
+  <si>
+    <t>Cтилус и ручка-чехол Samsung ET-S110EBEGSTD Black</t>
+  </si>
+  <si>
+    <t>ctilus-i-ruchka-chehol-samsung-et-s110ebegstd-black</t>
+  </si>
+  <si>
+    <t>Универсальная подставка Samsung EDD-D200BEGSTD Black</t>
+  </si>
+  <si>
+    <t>universalnaia-podstavka-samsung-edd-d200begstd-black</t>
+  </si>
+  <si>
+    <t>Стилус Samsung ET-S100EBEGSTD Black</t>
+  </si>
+  <si>
+    <t>stilus-samsung-et-s100ebegstd-black</t>
+  </si>
+  <si>
+    <t>Док-станция Samsung EDD-D1E1BEGSTD Black</t>
+  </si>
+  <si>
+    <t>dok-stantsiia-samsung-edd-d1e1begstd-black</t>
+  </si>
+  <si>
+    <t>Кабель для подключения к телевизору Samsung EPL-3FHUBEGSTD Black</t>
+  </si>
+  <si>
+    <t>kabel-dlia-podkliucheniia-k-televizoru-samsung-epl-3fhubegstd-black</t>
+  </si>
+  <si>
+    <t>Мультимедийный модуль HTC DG H200</t>
+  </si>
+  <si>
+    <t>multimediinyi-modul-htc-dg-h200</t>
+  </si>
+  <si>
+    <t>Универсальная подставка Samsung EDD-D100BEGSTD Black</t>
+  </si>
+  <si>
+    <t>universalnaia-podstavka-samsung-edd-d100begstd-black</t>
+  </si>
+  <si>
+    <t>Подставка-держатель Samsung EBH-1E1SBEGSTD Black</t>
+  </si>
+  <si>
+    <t>podstavka-derzhatel-samsung-ebh-1e1sbegstd-black</t>
+  </si>
+  <si>
+    <t>Стилус Samsung ETC-S1J9WEGSTD N7100 White</t>
+  </si>
+  <si>
+    <t>stilus-samsung-etc-s1j9wegstd-n7100-white</t>
+  </si>
+  <si>
+    <t>Подставка Samsung EDD-D1C9BEGSTD Black</t>
+  </si>
+  <si>
+    <t>podstavka-samsung-edd-d1c9begstd-black</t>
+  </si>
+  <si>
+    <t>Дата-кабель Samsung ECC1DP0UBECSTD Black</t>
+  </si>
+  <si>
+    <t>data-kabel-samsung-ecc1dp0ubecstd-black</t>
+  </si>
+  <si>
+    <t>USB кабель HTC DC M410</t>
+  </si>
+  <si>
+    <t>usb-kabel-htc-dc-m410</t>
+  </si>
+  <si>
+    <t>Стилус Samsung ETC-S1J9SEGSTD N7100 Dark Silver</t>
+  </si>
+  <si>
+    <t>stilus-samsung-etc-s1j9segstd-n7100-dark-silver</t>
+  </si>
+  <si>
+    <t>Клавиатура Samsung EKD-K12RWEGSER P5100/P5110 Black</t>
+  </si>
+  <si>
+    <t>klaviatura-samsung-ekd-k12rwegser-p5100-p5110-black</t>
+  </si>
+  <si>
+    <t>USB адаптер Samsung EPL-1PL0BEGSTD Black</t>
+  </si>
+  <si>
+    <t>usb-adapter-samsung-epl-1pl0begstd-black</t>
+  </si>
+  <si>
+    <t>Стилус Samsung ETC-S10CSEGSTD I9300 Silver</t>
+  </si>
+  <si>
+    <t>stilus-samsung-etc-s10csegstd-i9300-silver</t>
   </si>
 </sst>
 </file>
@@ -503,7 +1952,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,12 +1988,14 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4000</v>
+        <v>299</v>
       </c>
       <c r="D2">
-        <v>20011</v>
-      </c>
-      <c r="E2"/>
+        <v>90303</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
@@ -557,12 +2008,14 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>3629</v>
+        <v>659</v>
       </c>
       <c r="D3">
-        <v>20018</v>
-      </c>
-      <c r="E3"/>
+        <v>90302</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
@@ -575,12 +2028,14 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>7595</v>
+        <v>159</v>
       </c>
       <c r="D4">
-        <v>20019</v>
-      </c>
-      <c r="E4"/>
+        <v>90301</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
@@ -593,12 +2048,14 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>4999</v>
+        <v>299</v>
       </c>
       <c r="D5">
-        <v>20020</v>
-      </c>
-      <c r="E5"/>
+        <v>90304</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
@@ -611,12 +2068,14 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>5295</v>
+        <v>159</v>
       </c>
       <c r="D6">
-        <v>20021</v>
-      </c>
-      <c r="E6"/>
+        <v>90300</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
@@ -629,312 +2088,4874 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>5445</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>20023</v>
-      </c>
-      <c r="E7"/>
+        <v>700204</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>113</v>
+      </c>
+      <c r="D8">
+        <v>700200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>285</v>
-      </c>
-      <c r="D8">
-        <v>20205</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>650</v>
+      </c>
+      <c r="D9">
+        <v>700201</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>100</v>
-      </c>
-      <c r="D9">
-        <v>20203</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>599</v>
+      </c>
+      <c r="D10">
+        <v>700300</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>285</v>
-      </c>
-      <c r="D10">
-        <v>20202</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>1200</v>
+      </c>
+      <c r="D11">
+        <v>700203</v>
+      </c>
+      <c r="E11" t="s">
         <v>26</v>
       </c>
-      <c r="C11">
-        <v>212</v>
-      </c>
-      <c r="D11">
-        <v>20201</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>1842</v>
+      </c>
+      <c r="D12">
+        <v>70033</v>
+      </c>
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="C12">
-        <v>215</v>
-      </c>
-      <c r="D12">
-        <v>20200</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>1862</v>
+      </c>
+      <c r="D13">
+        <v>70031</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
         <v>30</v>
-      </c>
-      <c r="C13">
-        <v>215</v>
-      </c>
-      <c r="D13">
-        <v>20199</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>210</v>
+        <v>1842</v>
       </c>
       <c r="D14">
-        <v>20198</v>
+        <v>70036</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>210</v>
+        <v>2076</v>
       </c>
       <c r="D15">
-        <v>20196</v>
+        <v>70026</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>210</v>
+        <v>2426</v>
       </c>
       <c r="D16">
-        <v>20195</v>
+        <v>70035</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17">
-        <v>210</v>
+        <v>2426</v>
       </c>
       <c r="D17">
-        <v>20194</v>
+        <v>70034</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>22452</v>
       </c>
       <c r="D18">
-        <v>20193</v>
+        <v>30006</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>765</v>
       </c>
       <c r="D19">
-        <v>20192</v>
+        <v>30004</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>1762</v>
+      </c>
+      <c r="D20">
+        <v>30003</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
         <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>156</v>
-      </c>
-      <c r="D20">
-        <v>20191</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21">
-        <v>156</v>
+        <v>2065</v>
       </c>
       <c r="D21">
-        <v>20190</v>
+        <v>30002</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22">
+        <v>6913</v>
+      </c>
+      <c r="D22">
+        <v>30005</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>32988</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>196</v>
+      </c>
+      <c r="D24">
+        <v>30319</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>475</v>
+      </c>
+      <c r="D25">
+        <v>20012</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>398</v>
+      </c>
+      <c r="D26">
+        <v>20010</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>1150</v>
+      </c>
+      <c r="D27">
+        <v>20009</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>228</v>
+      </c>
+      <c r="D28">
+        <v>20013</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>200216</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30">
+        <v>100</v>
+      </c>
+      <c r="D30">
+        <v>200245</v>
+      </c>
+      <c r="E30" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>200240</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>200236</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>200217</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34">
+        <v>100</v>
+      </c>
+      <c r="D34">
+        <v>200244</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>200239</v>
+      </c>
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>200235</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>200218</v>
+      </c>
+      <c r="E37" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+      <c r="D38">
+        <v>200243</v>
+      </c>
+      <c r="E38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+      <c r="D39">
+        <v>200247</v>
+      </c>
+      <c r="E39" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40">
+        <v>1010</v>
+      </c>
+      <c r="D40">
+        <v>20014</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>200206</v>
+      </c>
+      <c r="E41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <v>100</v>
+      </c>
+      <c r="D42">
+        <v>200219</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>200242</v>
+      </c>
+      <c r="E43" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>200246</v>
+      </c>
+      <c r="E44" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <v>200211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>200238</v>
+      </c>
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47">
+        <v>100</v>
+      </c>
+      <c r="D47">
+        <v>200241</v>
+      </c>
+      <c r="E47" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>200237</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49">
+        <v>5445</v>
+      </c>
+      <c r="D49">
+        <v>20023</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50">
+        <v>3629</v>
+      </c>
+      <c r="D50">
+        <v>20018</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51">
+        <v>4000</v>
+      </c>
+      <c r="D51">
+        <v>20011</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52">
+        <v>285</v>
+      </c>
+      <c r="D52">
+        <v>20205</v>
+      </c>
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53">
+        <v>215</v>
+      </c>
+      <c r="D53">
+        <v>20199</v>
+      </c>
+      <c r="E53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54">
+        <v>100</v>
+      </c>
+      <c r="D54">
+        <v>20193</v>
+      </c>
+      <c r="E54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <v>20203</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56">
+        <v>210</v>
+      </c>
+      <c r="D56">
+        <v>20198</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>20192</v>
+      </c>
+      <c r="E57" t="s">
+        <v>124</v>
+      </c>
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58">
+        <v>5295</v>
+      </c>
+      <c r="D58">
+        <v>20021</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59">
+        <v>285</v>
+      </c>
+      <c r="D59">
+        <v>20202</v>
+      </c>
+      <c r="E59" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61">
+        <v>210</v>
+      </c>
+      <c r="D61">
+        <v>20196</v>
+      </c>
+      <c r="E61" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62">
+        <v>156</v>
+      </c>
+      <c r="D62">
+        <v>20191</v>
+      </c>
+      <c r="E62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63">
+        <v>4999</v>
+      </c>
+      <c r="D63">
+        <v>20020</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>139</v>
+      </c>
+      <c r="B64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C64">
+        <v>212</v>
+      </c>
+      <c r="D64">
+        <v>20201</v>
+      </c>
+      <c r="E64" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65">
+        <v>210</v>
+      </c>
+      <c r="D65">
+        <v>20195</v>
+      </c>
+      <c r="E65" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" t="s">
+        <v>144</v>
+      </c>
+      <c r="C66">
+        <v>156</v>
+      </c>
+      <c r="D66">
+        <v>20190</v>
+      </c>
+      <c r="E66" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67">
+        <v>7595</v>
+      </c>
+      <c r="D67">
+        <v>20019</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68">
+        <v>215</v>
+      </c>
+      <c r="D68">
+        <v>20200</v>
+      </c>
+      <c r="E68" t="s">
+        <v>147</v>
+      </c>
+      <c r="F68" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69">
+        <v>210</v>
+      </c>
+      <c r="D69">
+        <v>20194</v>
+      </c>
+      <c r="E69" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70">
+        <v>302</v>
+      </c>
+      <c r="D70">
+        <v>200937</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71">
+        <v>199</v>
+      </c>
+      <c r="D71">
+        <v>200424</v>
+      </c>
+      <c r="E71" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72">
+        <v>95</v>
+      </c>
+      <c r="D72">
+        <v>200932</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73">
+        <v>299</v>
+      </c>
+      <c r="D73">
+        <v>200936</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74">
+        <v>21.6</v>
+      </c>
+      <c r="D74">
+        <v>200931</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75">
+        <v>100</v>
+      </c>
+      <c r="D75">
+        <v>200423</v>
+      </c>
+      <c r="E75" t="s">
+        <v>165</v>
+      </c>
+      <c r="F75" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76">
+        <v>487</v>
+      </c>
+      <c r="D76">
+        <v>2008</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>200427</v>
+      </c>
+      <c r="E77" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78">
+        <v>195</v>
+      </c>
+      <c r="D78">
+        <v>200935</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>200422</v>
+      </c>
+      <c r="E79" t="s">
+        <v>175</v>
+      </c>
+      <c r="F79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80">
+        <v>155</v>
+      </c>
+      <c r="D80">
+        <v>20015</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81">
+        <v>209</v>
+      </c>
+      <c r="D81">
+        <v>200939</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82">
+        <v>100</v>
+      </c>
+      <c r="D82">
+        <v>200426</v>
+      </c>
+      <c r="E82" t="s">
+        <v>182</v>
+      </c>
+      <c r="F82" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" t="s">
+        <v>184</v>
+      </c>
+      <c r="C83">
+        <v>36.9</v>
+      </c>
+      <c r="D83">
+        <v>200934</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84">
+        <v>188</v>
+      </c>
+      <c r="D84">
+        <v>20030</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <v>200421</v>
+      </c>
+      <c r="E85" t="s">
+        <v>189</v>
+      </c>
+      <c r="F85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86">
+        <v>595</v>
+      </c>
+      <c r="D86">
+        <v>200938</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>192</v>
+      </c>
+      <c r="B87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87">
+        <v>100</v>
+      </c>
+      <c r="D87">
+        <v>200425</v>
+      </c>
+      <c r="E87" t="s">
+        <v>194</v>
+      </c>
+      <c r="F87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88">
+        <v>23</v>
+      </c>
+      <c r="D88">
+        <v>200933</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>197</v>
+      </c>
+      <c r="B89" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89">
+        <v>100</v>
+      </c>
+      <c r="D89">
+        <v>200419</v>
+      </c>
+      <c r="E89" t="s">
+        <v>197</v>
+      </c>
+      <c r="F89" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>200</v>
+      </c>
+      <c r="B90" t="s">
+        <v>201</v>
+      </c>
+      <c r="C90">
+        <v>100</v>
+      </c>
+      <c r="D90">
+        <v>200414</v>
+      </c>
+      <c r="E90" t="s">
+        <v>200</v>
+      </c>
+      <c r="F90" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>202</v>
+      </c>
+      <c r="B91" t="s">
+        <v>203</v>
+      </c>
+      <c r="C91">
+        <v>60</v>
+      </c>
+      <c r="D91">
+        <v>200941</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>204</v>
+      </c>
+      <c r="B92" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <v>200418</v>
+      </c>
+      <c r="E92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F92" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>206</v>
+      </c>
+      <c r="B93" t="s">
+        <v>207</v>
+      </c>
+      <c r="C93">
+        <v>100</v>
+      </c>
+      <c r="D93">
+        <v>200413</v>
+      </c>
+      <c r="E93" t="s">
+        <v>206</v>
+      </c>
+      <c r="F93" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" t="s">
+        <v>209</v>
+      </c>
+      <c r="C94">
+        <v>99</v>
+      </c>
+      <c r="D94">
+        <v>20016</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95">
+        <v>45</v>
+      </c>
+      <c r="D95">
+        <v>200940</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>212</v>
+      </c>
+      <c r="B96" t="s">
+        <v>213</v>
+      </c>
+      <c r="C96">
+        <v>899</v>
+      </c>
+      <c r="D96">
+        <v>20032</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>200417</v>
+      </c>
+      <c r="E97" t="s">
+        <v>214</v>
+      </c>
+      <c r="F97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>216</v>
+      </c>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98">
+        <v>100</v>
+      </c>
+      <c r="D98">
+        <v>200412</v>
+      </c>
+      <c r="E98" t="s">
+        <v>216</v>
+      </c>
+      <c r="F98" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>218</v>
+      </c>
+      <c r="B99" t="s">
+        <v>219</v>
+      </c>
+      <c r="C99">
+        <v>102</v>
+      </c>
+      <c r="D99">
+        <v>200416</v>
+      </c>
+      <c r="E99" t="s">
+        <v>218</v>
+      </c>
+      <c r="F99" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100">
+        <v>200409</v>
+      </c>
+      <c r="E100" t="s">
+        <v>220</v>
+      </c>
+      <c r="F100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101">
+        <v>159</v>
+      </c>
+      <c r="D101">
+        <v>200943</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>224</v>
+      </c>
+      <c r="B102" t="s">
+        <v>225</v>
+      </c>
+      <c r="C102">
+        <v>45</v>
+      </c>
+      <c r="D102">
+        <v>20029</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>226</v>
+      </c>
+      <c r="B103" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103">
+        <v>180</v>
+      </c>
+      <c r="D103">
+        <v>200420</v>
+      </c>
+      <c r="E103" t="s">
+        <v>226</v>
+      </c>
+      <c r="F103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104">
+        <v>100</v>
+      </c>
+      <c r="D104">
+        <v>200415</v>
+      </c>
+      <c r="E104" t="s">
+        <v>228</v>
+      </c>
+      <c r="F104" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105">
+        <v>100</v>
+      </c>
+      <c r="D105">
+        <v>200408</v>
+      </c>
+      <c r="E105" t="s">
+        <v>230</v>
+      </c>
+      <c r="F105" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>232</v>
+      </c>
+      <c r="B106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106">
+        <v>45</v>
+      </c>
+      <c r="D106">
+        <v>200942</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>234</v>
+      </c>
+      <c r="B107" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107">
+        <v>100</v>
+      </c>
+      <c r="D107">
+        <v>200390</v>
+      </c>
+      <c r="E107" t="s">
+        <v>234</v>
+      </c>
+      <c r="F107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C108">
         <v>49</v>
       </c>
-      <c r="E22"/>
-      <c r="F22" t="s">
+      <c r="D108">
+        <v>200332</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>239</v>
+      </c>
+      <c r="B109" t="s">
+        <v>240</v>
+      </c>
+      <c r="C109">
+        <v>100</v>
+      </c>
+      <c r="D109">
+        <v>200394</v>
+      </c>
+      <c r="E109" t="s">
+        <v>239</v>
+      </c>
+      <c r="F109" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>241</v>
+      </c>
+      <c r="B110" t="s">
+        <v>242</v>
+      </c>
+      <c r="C110">
+        <v>100</v>
+      </c>
+      <c r="D110">
+        <v>200389</v>
+      </c>
+      <c r="E110" t="s">
+        <v>241</v>
+      </c>
+      <c r="F110" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>243</v>
+      </c>
+      <c r="B111" t="s">
+        <v>244</v>
+      </c>
+      <c r="C111">
+        <v>100</v>
+      </c>
+      <c r="D111">
+        <v>200393</v>
+      </c>
+      <c r="E111" t="s">
+        <v>243</v>
+      </c>
+      <c r="F111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>245</v>
+      </c>
+      <c r="B112" t="s">
+        <v>246</v>
+      </c>
+      <c r="C112">
+        <v>100</v>
+      </c>
+      <c r="D112">
+        <v>200388</v>
+      </c>
+      <c r="E112" t="s">
+        <v>245</v>
+      </c>
+      <c r="F112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" t="s">
+        <v>248</v>
+      </c>
+      <c r="C113">
+        <v>19</v>
+      </c>
+      <c r="D113">
+        <v>200392</v>
+      </c>
+      <c r="E113" t="s">
+        <v>247</v>
+      </c>
+      <c r="F113" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>249</v>
+      </c>
+      <c r="B114" t="s">
+        <v>250</v>
+      </c>
+      <c r="C114">
+        <v>100</v>
+      </c>
+      <c r="D114">
+        <v>200391</v>
+      </c>
+      <c r="E114" t="s">
+        <v>249</v>
+      </c>
+      <c r="F114" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>251</v>
+      </c>
+      <c r="B115" t="s">
+        <v>252</v>
+      </c>
+      <c r="C115">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>200405</v>
+      </c>
+      <c r="E115" t="s">
+        <v>251</v>
+      </c>
+      <c r="F115" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>254</v>
+      </c>
+      <c r="B116" t="s">
+        <v>255</v>
+      </c>
+      <c r="C116">
+        <v>100</v>
+      </c>
+      <c r="D116">
+        <v>200400</v>
+      </c>
+      <c r="E116" t="s">
+        <v>254</v>
+      </c>
+      <c r="F116" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>256</v>
+      </c>
+      <c r="B117" t="s">
+        <v>257</v>
+      </c>
+      <c r="C117">
+        <v>100</v>
+      </c>
+      <c r="D117">
+        <v>200395</v>
+      </c>
+      <c r="E117" t="s">
+        <v>256</v>
+      </c>
+      <c r="F117" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>258</v>
+      </c>
+      <c r="B118" t="s">
+        <v>259</v>
+      </c>
+      <c r="C118">
+        <v>100</v>
+      </c>
+      <c r="D118">
+        <v>200404</v>
+      </c>
+      <c r="E118" t="s">
+        <v>258</v>
+      </c>
+      <c r="F118" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>260</v>
+      </c>
+      <c r="B119" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119">
+        <v>17</v>
+      </c>
+      <c r="D119">
+        <v>200399</v>
+      </c>
+      <c r="E119" t="s">
+        <v>260</v>
+      </c>
+      <c r="F119" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>262</v>
+      </c>
+      <c r="B120" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120">
+        <v>39</v>
+      </c>
+      <c r="D120">
+        <v>20026</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>264</v>
+      </c>
+      <c r="B121" t="s">
+        <v>265</v>
+      </c>
+      <c r="C121">
+        <v>100</v>
+      </c>
+      <c r="D121">
+        <v>200403</v>
+      </c>
+      <c r="E121" t="s">
+        <v>264</v>
+      </c>
+      <c r="F121" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>266</v>
+      </c>
+      <c r="B122" t="s">
+        <v>267</v>
+      </c>
+      <c r="C122">
+        <v>100</v>
+      </c>
+      <c r="D122">
+        <v>200398</v>
+      </c>
+      <c r="E122" t="s">
+        <v>266</v>
+      </c>
+      <c r="F122" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>268</v>
+      </c>
+      <c r="B123" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123">
+        <v>100</v>
+      </c>
+      <c r="D123">
+        <v>200402</v>
+      </c>
+      <c r="E123" t="s">
+        <v>268</v>
+      </c>
+      <c r="F123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>270</v>
+      </c>
+      <c r="B124" t="s">
+        <v>271</v>
+      </c>
+      <c r="C124">
+        <v>100</v>
+      </c>
+      <c r="D124">
+        <v>200397</v>
+      </c>
+      <c r="E124" t="s">
+        <v>270</v>
+      </c>
+      <c r="F124" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>272</v>
+      </c>
+      <c r="B125" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125">
+        <v>100</v>
+      </c>
+      <c r="D125">
+        <v>200401</v>
+      </c>
+      <c r="E125" t="s">
+        <v>272</v>
+      </c>
+      <c r="F125" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>274</v>
+      </c>
+      <c r="B126" t="s">
+        <v>275</v>
+      </c>
+      <c r="C126">
+        <v>100</v>
+      </c>
+      <c r="D126">
+        <v>200396</v>
+      </c>
+      <c r="E126" t="s">
+        <v>274</v>
+      </c>
+      <c r="F126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>276</v>
+      </c>
+      <c r="B127" t="s">
+        <v>277</v>
+      </c>
+      <c r="C127">
+        <v>100</v>
+      </c>
+      <c r="D127">
+        <v>200662</v>
+      </c>
+      <c r="E127" t="s">
+        <v>276</v>
+      </c>
+      <c r="F127" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>279</v>
+      </c>
+      <c r="B128" t="s">
+        <v>280</v>
+      </c>
+      <c r="C128">
+        <v>29</v>
+      </c>
+      <c r="D128">
+        <v>200657</v>
+      </c>
+      <c r="E128" t="s">
+        <v>279</v>
+      </c>
+      <c r="F128" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>281</v>
+      </c>
+      <c r="B129" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129">
+        <v>100</v>
+      </c>
+      <c r="D129">
+        <v>200652</v>
+      </c>
+      <c r="E129" t="s">
+        <v>281</v>
+      </c>
+      <c r="F129" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>283</v>
+      </c>
+      <c r="B130" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+      <c r="D130">
+        <v>200661</v>
+      </c>
+      <c r="E130" t="s">
+        <v>283</v>
+      </c>
+      <c r="F130" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>285</v>
+      </c>
+      <c r="B131" t="s">
+        <v>286</v>
+      </c>
+      <c r="C131">
+        <v>12</v>
+      </c>
+      <c r="D131">
+        <v>200656</v>
+      </c>
+      <c r="E131" t="s">
+        <v>285</v>
+      </c>
+      <c r="F131" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>287</v>
+      </c>
+      <c r="B132" t="s">
+        <v>288</v>
+      </c>
+      <c r="C132">
+        <v>100</v>
+      </c>
+      <c r="D132">
+        <v>200651</v>
+      </c>
+      <c r="E132" t="s">
+        <v>287</v>
+      </c>
+      <c r="F132" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>289</v>
+      </c>
+      <c r="B133" t="s">
+        <v>290</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>200665</v>
+      </c>
+      <c r="E133" t="s">
+        <v>289</v>
+      </c>
+      <c r="F133" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>291</v>
+      </c>
+      <c r="B134" t="s">
+        <v>292</v>
+      </c>
+      <c r="C134">
+        <v>25</v>
+      </c>
+      <c r="D134">
+        <v>200660</v>
+      </c>
+      <c r="E134" t="s">
+        <v>291</v>
+      </c>
+      <c r="F134" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>293</v>
+      </c>
+      <c r="B135" t="s">
+        <v>294</v>
+      </c>
+      <c r="C135">
+        <v>15</v>
+      </c>
+      <c r="D135">
+        <v>200655</v>
+      </c>
+      <c r="E135" t="s">
+        <v>293</v>
+      </c>
+      <c r="F135" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>295</v>
+      </c>
+      <c r="B136" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136">
+        <v>100</v>
+      </c>
+      <c r="D136">
+        <v>200650</v>
+      </c>
+      <c r="E136" t="s">
+        <v>295</v>
+      </c>
+      <c r="F136" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>297</v>
+      </c>
+      <c r="B137" t="s">
+        <v>298</v>
+      </c>
+      <c r="C137">
+        <v>100</v>
+      </c>
+      <c r="D137">
+        <v>200647</v>
+      </c>
+      <c r="E137" t="s">
+        <v>297</v>
+      </c>
+      <c r="F137" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>299</v>
+      </c>
+      <c r="B138" t="s">
+        <v>300</v>
+      </c>
+      <c r="C138">
+        <v>100</v>
+      </c>
+      <c r="D138">
+        <v>200664</v>
+      </c>
+      <c r="E138" t="s">
+        <v>299</v>
+      </c>
+      <c r="F138" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>301</v>
+      </c>
+      <c r="B139" t="s">
+        <v>302</v>
+      </c>
+      <c r="C139">
+        <v>31</v>
+      </c>
+      <c r="D139">
+        <v>200659</v>
+      </c>
+      <c r="E139" t="s">
+        <v>301</v>
+      </c>
+      <c r="F139" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>303</v>
+      </c>
+      <c r="B140" t="s">
+        <v>304</v>
+      </c>
+      <c r="C140">
+        <v>100</v>
+      </c>
+      <c r="D140">
+        <v>200654</v>
+      </c>
+      <c r="E140" t="s">
+        <v>303</v>
+      </c>
+      <c r="F140" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>305</v>
+      </c>
+      <c r="B141" t="s">
+        <v>306</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+      <c r="D141">
+        <v>200649</v>
+      </c>
+      <c r="E141" t="s">
+        <v>305</v>
+      </c>
+      <c r="F141" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>307</v>
+      </c>
+      <c r="B142" t="s">
+        <v>308</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>200663</v>
+      </c>
+      <c r="E142" t="s">
+        <v>307</v>
+      </c>
+      <c r="F142" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>309</v>
+      </c>
+      <c r="B143" t="s">
+        <v>310</v>
+      </c>
+      <c r="C143">
+        <v>135</v>
+      </c>
+      <c r="D143">
+        <v>20025</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>311</v>
+      </c>
+      <c r="B144" t="s">
+        <v>312</v>
+      </c>
+      <c r="C144">
+        <v>100</v>
+      </c>
+      <c r="D144">
+        <v>200658</v>
+      </c>
+      <c r="E144" t="s">
+        <v>311</v>
+      </c>
+      <c r="F144" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>313</v>
+      </c>
+      <c r="B145" t="s">
+        <v>314</v>
+      </c>
+      <c r="C145">
+        <v>14</v>
+      </c>
+      <c r="D145">
+        <v>200653</v>
+      </c>
+      <c r="E145" t="s">
+        <v>313</v>
+      </c>
+      <c r="F145" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>315</v>
+      </c>
+      <c r="B146" t="s">
+        <v>316</v>
+      </c>
+      <c r="C146">
+        <v>100</v>
+      </c>
+      <c r="D146">
+        <v>200648</v>
+      </c>
+      <c r="E146" t="s">
+        <v>315</v>
+      </c>
+      <c r="F146" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147" t="s">
+        <v>318</v>
+      </c>
+      <c r="C147">
+        <v>190</v>
+      </c>
+      <c r="D147">
+        <v>200634</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>320</v>
+      </c>
+      <c r="B148" t="s">
+        <v>321</v>
+      </c>
+      <c r="C148">
+        <v>4</v>
+      </c>
+      <c r="D148">
+        <v>200621</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>322</v>
+      </c>
+      <c r="B149" t="s">
+        <v>323</v>
+      </c>
+      <c r="C149">
+        <v>40</v>
+      </c>
+      <c r="D149">
+        <v>200625</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" t="s">
+        <v>325</v>
+      </c>
+      <c r="C150">
+        <v>43</v>
+      </c>
+      <c r="D150">
+        <v>200630</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>326</v>
+      </c>
+      <c r="B151" t="s">
+        <v>327</v>
+      </c>
+      <c r="C151">
+        <v>60</v>
+      </c>
+      <c r="D151">
+        <v>200636</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>328</v>
+      </c>
+      <c r="B152" t="s">
+        <v>329</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>200623</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>330</v>
+      </c>
+      <c r="B153" t="s">
+        <v>331</v>
+      </c>
+      <c r="C153">
+        <v>45</v>
+      </c>
+      <c r="D153">
+        <v>200627</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>332</v>
+      </c>
+      <c r="B154" t="s">
+        <v>333</v>
+      </c>
+      <c r="C154">
+        <v>50</v>
+      </c>
+      <c r="D154">
+        <v>200633</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>334</v>
+      </c>
+      <c r="B155" t="s">
+        <v>335</v>
+      </c>
+      <c r="C155">
+        <v>63</v>
+      </c>
+      <c r="D155">
+        <v>200638</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>336</v>
+      </c>
+      <c r="B156" t="s">
+        <v>337</v>
+      </c>
+      <c r="C156">
+        <v>100</v>
+      </c>
+      <c r="D156">
+        <v>200436</v>
+      </c>
+      <c r="E156" t="s">
+        <v>336</v>
+      </c>
+      <c r="F156" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>338</v>
+      </c>
+      <c r="B157" t="s">
+        <v>339</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157">
+        <v>200429</v>
+      </c>
+      <c r="E157" t="s">
+        <v>338</v>
+      </c>
+      <c r="F157" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>340</v>
+      </c>
+      <c r="B158" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158">
+        <v>45</v>
+      </c>
+      <c r="D158">
+        <v>200622</v>
+      </c>
+      <c r="E158"/>
+      <c r="F158" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>342</v>
+      </c>
+      <c r="B159" t="s">
+        <v>343</v>
+      </c>
+      <c r="C159">
+        <v>69</v>
+      </c>
+      <c r="D159">
+        <v>200629</v>
+      </c>
+      <c r="E159"/>
+      <c r="F159" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>344</v>
+      </c>
+      <c r="B160" t="s">
+        <v>345</v>
+      </c>
+      <c r="C160">
+        <v>50</v>
+      </c>
+      <c r="D160">
+        <v>200635</v>
+      </c>
+      <c r="E160"/>
+      <c r="F160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>346</v>
+      </c>
+      <c r="B161" t="s">
+        <v>347</v>
+      </c>
+      <c r="C161">
+        <v>50</v>
+      </c>
+      <c r="D161">
+        <v>200624</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>348</v>
+      </c>
+      <c r="B162" t="s">
+        <v>349</v>
+      </c>
+      <c r="C162">
+        <v>149</v>
+      </c>
+      <c r="D162">
+        <v>200628</v>
+      </c>
+      <c r="E162"/>
+      <c r="F162" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>350</v>
+      </c>
+      <c r="B163" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163">
+        <v>64</v>
+      </c>
+      <c r="D163">
+        <v>200632</v>
+      </c>
+      <c r="E163"/>
+      <c r="F163" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>352</v>
+      </c>
+      <c r="B164" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164">
+        <v>65</v>
+      </c>
+      <c r="D164">
+        <v>200637</v>
+      </c>
+      <c r="E164"/>
+      <c r="F164" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>354</v>
+      </c>
+      <c r="B165" t="s">
+        <v>355</v>
+      </c>
+      <c r="C165">
+        <v>50</v>
+      </c>
+      <c r="D165">
+        <v>200626</v>
+      </c>
+      <c r="E165"/>
+      <c r="F165" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>356</v>
+      </c>
+      <c r="B166" t="s">
+        <v>357</v>
+      </c>
+      <c r="C166">
+        <v>128</v>
+      </c>
+      <c r="D166">
+        <v>200631</v>
+      </c>
+      <c r="E166"/>
+      <c r="F166" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>358</v>
+      </c>
+      <c r="B167" t="s">
+        <v>359</v>
+      </c>
+      <c r="C167">
+        <v>2793</v>
+      </c>
+      <c r="D167">
+        <v>20006</v>
+      </c>
+      <c r="E167" t="s">
+        <v>360</v>
+      </c>
+      <c r="F167" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>358</v>
+      </c>
+      <c r="B168" t="s">
+        <v>359</v>
+      </c>
+      <c r="C168">
+        <v>2790</v>
+      </c>
+      <c r="D168">
+        <v>20005</v>
+      </c>
+      <c r="E168" t="s">
+        <v>362</v>
+      </c>
+      <c r="F168" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>358</v>
+      </c>
+      <c r="B169" t="s">
+        <v>359</v>
+      </c>
+      <c r="C169">
+        <v>2786</v>
+      </c>
+      <c r="D169">
+        <v>20008</v>
+      </c>
+      <c r="E169" t="s">
+        <v>363</v>
+      </c>
+      <c r="F169" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>358</v>
+      </c>
+      <c r="B170" t="s">
+        <v>359</v>
+      </c>
+      <c r="C170">
+        <v>2795</v>
+      </c>
+      <c r="D170">
+        <v>20004</v>
+      </c>
+      <c r="E170"/>
+      <c r="F170" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>364</v>
+      </c>
+      <c r="B171" t="s">
+        <v>365</v>
+      </c>
+      <c r="C171">
+        <v>69</v>
+      </c>
+      <c r="D171">
+        <v>20024</v>
+      </c>
+      <c r="E171"/>
+      <c r="F171" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>358</v>
+      </c>
+      <c r="B172" t="s">
+        <v>359</v>
+      </c>
+      <c r="C172">
+        <v>2787</v>
+      </c>
+      <c r="D172">
+        <v>20007</v>
+      </c>
+      <c r="E172" t="s">
+        <v>366</v>
+      </c>
+      <c r="F172" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>367</v>
+      </c>
+      <c r="B173" t="s">
+        <v>368</v>
+      </c>
+      <c r="C173">
+        <v>100</v>
+      </c>
+      <c r="D173">
+        <v>200539</v>
+      </c>
+      <c r="E173" t="s">
+        <v>367</v>
+      </c>
+      <c r="F173" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>370</v>
+      </c>
+      <c r="B174" t="s">
+        <v>371</v>
+      </c>
+      <c r="C174">
+        <v>100</v>
+      </c>
+      <c r="D174">
+        <v>200534</v>
+      </c>
+      <c r="E174" t="s">
+        <v>370</v>
+      </c>
+      <c r="F174" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>372</v>
+      </c>
+      <c r="B175" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175">
+        <v>40</v>
+      </c>
+      <c r="D175">
+        <v>200529</v>
+      </c>
+      <c r="E175" t="s">
+        <v>372</v>
+      </c>
+      <c r="F175" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>374</v>
+      </c>
+      <c r="B176" t="s">
+        <v>375</v>
+      </c>
+      <c r="C176">
+        <v>100</v>
+      </c>
+      <c r="D176">
+        <v>200524</v>
+      </c>
+      <c r="E176" t="s">
+        <v>374</v>
+      </c>
+      <c r="F176" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>376</v>
+      </c>
+      <c r="B177" t="s">
+        <v>377</v>
+      </c>
+      <c r="C177">
+        <v>36</v>
+      </c>
+      <c r="D177">
+        <v>200538</v>
+      </c>
+      <c r="E177" t="s">
+        <v>376</v>
+      </c>
+      <c r="F177" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>378</v>
+      </c>
+      <c r="B178" t="s">
+        <v>379</v>
+      </c>
+      <c r="C178">
+        <v>100</v>
+      </c>
+      <c r="D178">
+        <v>200533</v>
+      </c>
+      <c r="E178" t="s">
+        <v>378</v>
+      </c>
+      <c r="F178" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>380</v>
+      </c>
+      <c r="B179" t="s">
+        <v>381</v>
+      </c>
+      <c r="C179">
+        <v>100</v>
+      </c>
+      <c r="D179">
+        <v>200528</v>
+      </c>
+      <c r="E179" t="s">
+        <v>380</v>
+      </c>
+      <c r="F179" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>382</v>
+      </c>
+      <c r="B180" t="s">
+        <v>383</v>
+      </c>
+      <c r="C180">
+        <v>30</v>
+      </c>
+      <c r="D180">
+        <v>200523</v>
+      </c>
+      <c r="E180" t="s">
+        <v>382</v>
+      </c>
+      <c r="F180" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>384</v>
+      </c>
+      <c r="B181" t="s">
+        <v>385</v>
+      </c>
+      <c r="C181">
+        <v>36</v>
+      </c>
+      <c r="D181">
+        <v>200537</v>
+      </c>
+      <c r="E181" t="s">
+        <v>384</v>
+      </c>
+      <c r="F181" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>386</v>
+      </c>
+      <c r="B182" t="s">
+        <v>387</v>
+      </c>
+      <c r="C182">
+        <v>100</v>
+      </c>
+      <c r="D182">
+        <v>200532</v>
+      </c>
+      <c r="E182" t="s">
+        <v>386</v>
+      </c>
+      <c r="F182" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>388</v>
+      </c>
+      <c r="B183" t="s">
+        <v>389</v>
+      </c>
+      <c r="C183">
+        <v>100</v>
+      </c>
+      <c r="D183">
+        <v>200527</v>
+      </c>
+      <c r="E183" t="s">
+        <v>388</v>
+      </c>
+      <c r="F183" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>390</v>
+      </c>
+      <c r="B184" t="s">
+        <v>391</v>
+      </c>
+      <c r="C184">
+        <v>25</v>
+      </c>
+      <c r="D184">
+        <v>200522</v>
+      </c>
+      <c r="E184" t="s">
+        <v>390</v>
+      </c>
+      <c r="F184" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>392</v>
+      </c>
+      <c r="B185" t="s">
+        <v>393</v>
+      </c>
+      <c r="C185">
+        <v>539</v>
+      </c>
+      <c r="D185">
+        <v>20003</v>
+      </c>
+      <c r="E185"/>
+      <c r="F185" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>394</v>
+      </c>
+      <c r="B186" t="s">
+        <v>395</v>
+      </c>
+      <c r="C186">
+        <v>30</v>
+      </c>
+      <c r="D186">
+        <v>200536</v>
+      </c>
+      <c r="E186" t="s">
+        <v>394</v>
+      </c>
+      <c r="F186" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>396</v>
+      </c>
+      <c r="B187" t="s">
+        <v>397</v>
+      </c>
+      <c r="C187">
+        <v>100</v>
+      </c>
+      <c r="D187">
+        <v>200531</v>
+      </c>
+      <c r="E187" t="s">
+        <v>396</v>
+      </c>
+      <c r="F187" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>398</v>
+      </c>
+      <c r="B188" t="s">
+        <v>399</v>
+      </c>
+      <c r="C188">
+        <v>100</v>
+      </c>
+      <c r="D188">
+        <v>200526</v>
+      </c>
+      <c r="E188" t="s">
+        <v>398</v>
+      </c>
+      <c r="F188" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>400</v>
+      </c>
+      <c r="B189" t="s">
+        <v>401</v>
+      </c>
+      <c r="C189">
+        <v>25</v>
+      </c>
+      <c r="D189">
+        <v>200521</v>
+      </c>
+      <c r="E189" t="s">
+        <v>400</v>
+      </c>
+      <c r="F189" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>402</v>
+      </c>
+      <c r="B190" t="s">
+        <v>403</v>
+      </c>
+      <c r="C190">
+        <v>30</v>
+      </c>
+      <c r="D190">
+        <v>200535</v>
+      </c>
+      <c r="E190" t="s">
+        <v>402</v>
+      </c>
+      <c r="F190" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>404</v>
+      </c>
+      <c r="B191" t="s">
+        <v>405</v>
+      </c>
+      <c r="C191">
+        <v>40</v>
+      </c>
+      <c r="D191">
+        <v>200530</v>
+      </c>
+      <c r="E191" t="s">
+        <v>404</v>
+      </c>
+      <c r="F191" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>406</v>
+      </c>
+      <c r="B192" t="s">
+        <v>407</v>
+      </c>
+      <c r="C192">
+        <v>100</v>
+      </c>
+      <c r="D192">
+        <v>200525</v>
+      </c>
+      <c r="E192" t="s">
+        <v>406</v>
+      </c>
+      <c r="F192" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>408</v>
+      </c>
+      <c r="B193" t="s">
+        <v>409</v>
+      </c>
+      <c r="C193">
+        <v>74</v>
+      </c>
+      <c r="D193">
+        <v>20027</v>
+      </c>
+      <c r="E193"/>
+      <c r="F193" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>411</v>
+      </c>
+      <c r="B194" t="s">
+        <v>412</v>
+      </c>
+      <c r="C194">
+        <v>10</v>
+      </c>
+      <c r="D194">
+        <v>200616</v>
+      </c>
+      <c r="E194" t="s">
+        <v>413</v>
+      </c>
+      <c r="F194" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>414</v>
+      </c>
+      <c r="B195" t="s">
+        <v>415</v>
+      </c>
+      <c r="C195">
+        <v>8.89</v>
+      </c>
+      <c r="D195">
+        <v>200611</v>
+      </c>
+      <c r="E195"/>
+      <c r="F195" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>416</v>
+      </c>
+      <c r="B196" t="s">
+        <v>417</v>
+      </c>
+      <c r="C196">
+        <v>100</v>
+      </c>
+      <c r="D196">
+        <v>200970</v>
+      </c>
+      <c r="E196" t="s">
+        <v>416</v>
+      </c>
+      <c r="F196" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>418</v>
+      </c>
+      <c r="B197" t="s">
+        <v>419</v>
+      </c>
+      <c r="C197">
+        <v>15</v>
+      </c>
+      <c r="D197">
+        <v>200965</v>
+      </c>
+      <c r="E197" t="s">
+        <v>418</v>
+      </c>
+      <c r="F197" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>420</v>
+      </c>
+      <c r="B198" t="s">
+        <v>421</v>
+      </c>
+      <c r="C198">
+        <v>15</v>
+      </c>
+      <c r="D198">
+        <v>200960</v>
+      </c>
+      <c r="E198" t="s">
+        <v>420</v>
+      </c>
+      <c r="F198" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>411</v>
+      </c>
+      <c r="B199" t="s">
+        <v>412</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+      <c r="D199">
+        <v>200615</v>
+      </c>
+      <c r="E199" t="s">
+        <v>422</v>
+      </c>
+      <c r="F199" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>423</v>
+      </c>
+      <c r="B200" t="s">
+        <v>424</v>
+      </c>
+      <c r="C200">
+        <v>35</v>
+      </c>
+      <c r="D200">
+        <v>200610</v>
+      </c>
+      <c r="E200"/>
+      <c r="F200" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>425</v>
+      </c>
+      <c r="B201" t="s">
+        <v>426</v>
+      </c>
+      <c r="C201">
+        <v>9</v>
+      </c>
+      <c r="D201">
+        <v>200969</v>
+      </c>
+      <c r="E201" t="s">
+        <v>425</v>
+      </c>
+      <c r="F201" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>427</v>
+      </c>
+      <c r="B202" t="s">
+        <v>428</v>
+      </c>
+      <c r="C202">
+        <v>15</v>
+      </c>
+      <c r="D202">
+        <v>200964</v>
+      </c>
+      <c r="E202" t="s">
+        <v>427</v>
+      </c>
+      <c r="F202" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>429</v>
+      </c>
+      <c r="B203" t="s">
+        <v>430</v>
+      </c>
+      <c r="C203">
+        <v>15</v>
+      </c>
+      <c r="D203">
+        <v>200959</v>
+      </c>
+      <c r="E203" t="s">
+        <v>429</v>
+      </c>
+      <c r="F203" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>411</v>
+      </c>
+      <c r="B204" t="s">
+        <v>412</v>
+      </c>
+      <c r="C204">
+        <v>10</v>
+      </c>
+      <c r="D204">
+        <v>200614</v>
+      </c>
+      <c r="E204" t="s">
+        <v>431</v>
+      </c>
+      <c r="F204" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>432</v>
+      </c>
+      <c r="B205" t="s">
+        <v>433</v>
+      </c>
+      <c r="C205">
+        <v>16.85</v>
+      </c>
+      <c r="D205">
+        <v>200609</v>
+      </c>
+      <c r="E205"/>
+      <c r="F205" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>434</v>
+      </c>
+      <c r="B206" t="s">
+        <v>435</v>
+      </c>
+      <c r="C206">
         <v>8</v>
+      </c>
+      <c r="D206">
+        <v>200968</v>
+      </c>
+      <c r="E206" t="s">
+        <v>434</v>
+      </c>
+      <c r="F206" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>436</v>
+      </c>
+      <c r="B207" t="s">
+        <v>437</v>
+      </c>
+      <c r="C207">
+        <v>10</v>
+      </c>
+      <c r="D207">
+        <v>200963</v>
+      </c>
+      <c r="E207" t="s">
+        <v>436</v>
+      </c>
+      <c r="F207" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>438</v>
+      </c>
+      <c r="B208" t="s">
+        <v>439</v>
+      </c>
+      <c r="C208">
+        <v>15</v>
+      </c>
+      <c r="D208">
+        <v>200958</v>
+      </c>
+      <c r="E208" t="s">
+        <v>438</v>
+      </c>
+      <c r="F208" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>440</v>
+      </c>
+      <c r="B209" t="s">
+        <v>441</v>
+      </c>
+      <c r="C209">
+        <v>9</v>
+      </c>
+      <c r="D209">
+        <v>200619</v>
+      </c>
+      <c r="E209"/>
+      <c r="F209" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>442</v>
+      </c>
+      <c r="B210" t="s">
+        <v>443</v>
+      </c>
+      <c r="C210">
+        <v>14</v>
+      </c>
+      <c r="D210">
+        <v>200613</v>
+      </c>
+      <c r="E210" t="s">
+        <v>444</v>
+      </c>
+      <c r="F210" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>411</v>
+      </c>
+      <c r="B211" t="s">
+        <v>412</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211">
+        <v>201055</v>
+      </c>
+      <c r="E211" t="s">
+        <v>411</v>
+      </c>
+      <c r="F211" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>445</v>
+      </c>
+      <c r="B212" t="s">
+        <v>446</v>
+      </c>
+      <c r="C212">
+        <v>100</v>
+      </c>
+      <c r="D212">
+        <v>200967</v>
+      </c>
+      <c r="E212" t="s">
+        <v>445</v>
+      </c>
+      <c r="F212" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>447</v>
+      </c>
+      <c r="B213" t="s">
+        <v>448</v>
+      </c>
+      <c r="C213">
+        <v>15</v>
+      </c>
+      <c r="D213">
+        <v>200962</v>
+      </c>
+      <c r="E213" t="s">
+        <v>447</v>
+      </c>
+      <c r="F213" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>411</v>
+      </c>
+      <c r="B214" t="s">
+        <v>412</v>
+      </c>
+      <c r="C214">
+        <v>10</v>
+      </c>
+      <c r="D214">
+        <v>200618</v>
+      </c>
+      <c r="E214" t="s">
+        <v>449</v>
+      </c>
+      <c r="F214" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" t="s">
+        <v>442</v>
+      </c>
+      <c r="B215" t="s">
+        <v>443</v>
+      </c>
+      <c r="C215">
+        <v>15</v>
+      </c>
+      <c r="D215">
+        <v>200612</v>
+      </c>
+      <c r="E215" t="s">
+        <v>450</v>
+      </c>
+      <c r="F215" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" t="s">
+        <v>423</v>
+      </c>
+      <c r="B216" t="s">
+        <v>424</v>
+      </c>
+      <c r="C216">
+        <v>52</v>
+      </c>
+      <c r="D216">
+        <v>201028</v>
+      </c>
+      <c r="E216" t="s">
+        <v>423</v>
+      </c>
+      <c r="F216" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" t="s">
+        <v>451</v>
+      </c>
+      <c r="B217" t="s">
+        <v>452</v>
+      </c>
+      <c r="C217">
+        <v>100</v>
+      </c>
+      <c r="D217">
+        <v>200966</v>
+      </c>
+      <c r="E217" t="s">
+        <v>451</v>
+      </c>
+      <c r="F217" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" t="s">
+        <v>453</v>
+      </c>
+      <c r="B218" t="s">
+        <v>454</v>
+      </c>
+      <c r="C218">
+        <v>15</v>
+      </c>
+      <c r="D218">
+        <v>200961</v>
+      </c>
+      <c r="E218" t="s">
+        <v>453</v>
+      </c>
+      <c r="F218" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" t="s">
+        <v>455</v>
+      </c>
+      <c r="B219" t="s">
+        <v>456</v>
+      </c>
+      <c r="C219">
+        <v>7</v>
+      </c>
+      <c r="D219">
+        <v>200468</v>
+      </c>
+      <c r="E219" t="s">
+        <v>455</v>
+      </c>
+      <c r="F219" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" t="s">
+        <v>458</v>
+      </c>
+      <c r="B220" t="s">
+        <v>459</v>
+      </c>
+      <c r="C220">
+        <v>100</v>
+      </c>
+      <c r="D220">
+        <v>200473</v>
+      </c>
+      <c r="E220" t="s">
+        <v>458</v>
+      </c>
+      <c r="F220" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" t="s">
+        <v>460</v>
+      </c>
+      <c r="B221" t="s">
+        <v>461</v>
+      </c>
+      <c r="C221">
+        <v>100</v>
+      </c>
+      <c r="D221">
+        <v>200478</v>
+      </c>
+      <c r="E221" t="s">
+        <v>460</v>
+      </c>
+      <c r="F221" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>462</v>
+      </c>
+      <c r="B222" t="s">
+        <v>463</v>
+      </c>
+      <c r="C222">
+        <v>100</v>
+      </c>
+      <c r="D222">
+        <v>200483</v>
+      </c>
+      <c r="E222" t="s">
+        <v>462</v>
+      </c>
+      <c r="F222" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>464</v>
+      </c>
+      <c r="B223" t="s">
+        <v>465</v>
+      </c>
+      <c r="C223">
+        <v>100</v>
+      </c>
+      <c r="D223">
+        <v>200469</v>
+      </c>
+      <c r="E223" t="s">
+        <v>464</v>
+      </c>
+      <c r="F223" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" t="s">
+        <v>466</v>
+      </c>
+      <c r="B224" t="s">
+        <v>467</v>
+      </c>
+      <c r="C224">
+        <v>100</v>
+      </c>
+      <c r="D224">
+        <v>200474</v>
+      </c>
+      <c r="E224" t="s">
+        <v>466</v>
+      </c>
+      <c r="F224" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" t="s">
+        <v>468</v>
+      </c>
+      <c r="B225" t="s">
+        <v>469</v>
+      </c>
+      <c r="C225">
+        <v>100</v>
+      </c>
+      <c r="D225">
+        <v>200479</v>
+      </c>
+      <c r="E225" t="s">
+        <v>468</v>
+      </c>
+      <c r="F225" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" t="s">
+        <v>470</v>
+      </c>
+      <c r="B226" t="s">
+        <v>471</v>
+      </c>
+      <c r="C226">
+        <v>100</v>
+      </c>
+      <c r="D226">
+        <v>200484</v>
+      </c>
+      <c r="E226" t="s">
+        <v>470</v>
+      </c>
+      <c r="F226" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" t="s">
+        <v>472</v>
+      </c>
+      <c r="B227" t="s">
+        <v>473</v>
+      </c>
+      <c r="C227">
+        <v>7</v>
+      </c>
+      <c r="D227">
+        <v>200470</v>
+      </c>
+      <c r="E227" t="s">
+        <v>472</v>
+      </c>
+      <c r="F227" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" t="s">
+        <v>474</v>
+      </c>
+      <c r="B228" t="s">
+        <v>475</v>
+      </c>
+      <c r="C228">
+        <v>100</v>
+      </c>
+      <c r="D228">
+        <v>200475</v>
+      </c>
+      <c r="E228" t="s">
+        <v>474</v>
+      </c>
+      <c r="F228" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" t="s">
+        <v>476</v>
+      </c>
+      <c r="B229" t="s">
+        <v>477</v>
+      </c>
+      <c r="C229">
+        <v>100</v>
+      </c>
+      <c r="D229">
+        <v>200480</v>
+      </c>
+      <c r="E229" t="s">
+        <v>476</v>
+      </c>
+      <c r="F229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" t="s">
+        <v>478</v>
+      </c>
+      <c r="B230" t="s">
+        <v>479</v>
+      </c>
+      <c r="C230">
+        <v>100</v>
+      </c>
+      <c r="D230">
+        <v>200448</v>
+      </c>
+      <c r="E230" t="s">
+        <v>478</v>
+      </c>
+      <c r="F230" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" t="s">
+        <v>480</v>
+      </c>
+      <c r="B231" t="s">
+        <v>481</v>
+      </c>
+      <c r="C231">
+        <v>100</v>
+      </c>
+      <c r="D231">
+        <v>200471</v>
+      </c>
+      <c r="E231" t="s">
+        <v>480</v>
+      </c>
+      <c r="F231" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" t="s">
+        <v>482</v>
+      </c>
+      <c r="B232" t="s">
+        <v>483</v>
+      </c>
+      <c r="C232">
+        <v>100</v>
+      </c>
+      <c r="D232">
+        <v>200476</v>
+      </c>
+      <c r="E232" t="s">
+        <v>482</v>
+      </c>
+      <c r="F232" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" t="s">
+        <v>484</v>
+      </c>
+      <c r="B233" t="s">
+        <v>485</v>
+      </c>
+      <c r="C233">
+        <v>100</v>
+      </c>
+      <c r="D233">
+        <v>200481</v>
+      </c>
+      <c r="E233" t="s">
+        <v>484</v>
+      </c>
+      <c r="F233" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" t="s">
+        <v>486</v>
+      </c>
+      <c r="B234" t="s">
+        <v>487</v>
+      </c>
+      <c r="C234">
+        <v>7</v>
+      </c>
+      <c r="D234">
+        <v>200467</v>
+      </c>
+      <c r="E234" t="s">
+        <v>486</v>
+      </c>
+      <c r="F234" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" t="s">
+        <v>488</v>
+      </c>
+      <c r="B235" t="s">
+        <v>489</v>
+      </c>
+      <c r="C235">
+        <v>100</v>
+      </c>
+      <c r="D235">
+        <v>200472</v>
+      </c>
+      <c r="E235" t="s">
+        <v>488</v>
+      </c>
+      <c r="F235" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" t="s">
+        <v>490</v>
+      </c>
+      <c r="B236" t="s">
+        <v>491</v>
+      </c>
+      <c r="C236">
+        <v>100</v>
+      </c>
+      <c r="D236">
+        <v>200477</v>
+      </c>
+      <c r="E236" t="s">
+        <v>490</v>
+      </c>
+      <c r="F236" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" t="s">
+        <v>492</v>
+      </c>
+      <c r="B237" t="s">
+        <v>493</v>
+      </c>
+      <c r="C237">
+        <v>100</v>
+      </c>
+      <c r="D237">
+        <v>200482</v>
+      </c>
+      <c r="E237" t="s">
+        <v>492</v>
+      </c>
+      <c r="F237" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" t="s">
+        <v>494</v>
+      </c>
+      <c r="B238" t="s">
+        <v>495</v>
+      </c>
+      <c r="C238">
+        <v>100</v>
+      </c>
+      <c r="D238">
+        <v>200520</v>
+      </c>
+      <c r="E238" t="s">
+        <v>494</v>
+      </c>
+      <c r="F238" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" t="s">
+        <v>496</v>
+      </c>
+      <c r="B239" t="s">
+        <v>497</v>
+      </c>
+      <c r="C239">
+        <v>100</v>
+      </c>
+      <c r="D239">
+        <v>200435</v>
+      </c>
+      <c r="E239" t="s">
+        <v>496</v>
+      </c>
+      <c r="F239" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" t="s">
+        <v>499</v>
+      </c>
+      <c r="B240" t="s">
+        <v>500</v>
+      </c>
+      <c r="C240">
+        <v>100</v>
+      </c>
+      <c r="D240">
+        <v>200438</v>
+      </c>
+      <c r="E240" t="s">
+        <v>499</v>
+      </c>
+      <c r="F240" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>501</v>
+      </c>
+      <c r="B241" t="s">
+        <v>502</v>
+      </c>
+      <c r="C241">
+        <v>100</v>
+      </c>
+      <c r="D241">
+        <v>200431</v>
+      </c>
+      <c r="E241" t="s">
+        <v>501</v>
+      </c>
+      <c r="F241" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>503</v>
+      </c>
+      <c r="B242" t="s">
+        <v>504</v>
+      </c>
+      <c r="C242">
+        <v>100</v>
+      </c>
+      <c r="D242">
+        <v>200447</v>
+      </c>
+      <c r="E242" t="s">
+        <v>503</v>
+      </c>
+      <c r="F242" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>505</v>
+      </c>
+      <c r="B243" t="s">
+        <v>506</v>
+      </c>
+      <c r="C243">
+        <v>100</v>
+      </c>
+      <c r="D243">
+        <v>200442</v>
+      </c>
+      <c r="E243" t="s">
+        <v>505</v>
+      </c>
+      <c r="F243" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>507</v>
+      </c>
+      <c r="B244" t="s">
+        <v>508</v>
+      </c>
+      <c r="C244">
+        <v>100</v>
+      </c>
+      <c r="D244">
+        <v>200434</v>
+      </c>
+      <c r="E244" t="s">
+        <v>507</v>
+      </c>
+      <c r="F244" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>509</v>
+      </c>
+      <c r="B245" t="s">
+        <v>510</v>
+      </c>
+      <c r="C245">
+        <v>100</v>
+      </c>
+      <c r="D245">
+        <v>200437</v>
+      </c>
+      <c r="E245" t="s">
+        <v>509</v>
+      </c>
+      <c r="F245" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>511</v>
+      </c>
+      <c r="B246" t="s">
+        <v>512</v>
+      </c>
+      <c r="C246">
+        <v>100</v>
+      </c>
+      <c r="D246">
+        <v>200430</v>
+      </c>
+      <c r="E246" t="s">
+        <v>511</v>
+      </c>
+      <c r="F246" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>513</v>
+      </c>
+      <c r="B247" t="s">
+        <v>514</v>
+      </c>
+      <c r="C247">
+        <v>100</v>
+      </c>
+      <c r="D247">
+        <v>200446</v>
+      </c>
+      <c r="E247" t="s">
+        <v>513</v>
+      </c>
+      <c r="F247" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>515</v>
+      </c>
+      <c r="B248" t="s">
+        <v>516</v>
+      </c>
+      <c r="C248">
+        <v>100</v>
+      </c>
+      <c r="D248">
+        <v>200441</v>
+      </c>
+      <c r="E248" t="s">
+        <v>515</v>
+      </c>
+      <c r="F248" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>517</v>
+      </c>
+      <c r="B249" t="s">
+        <v>518</v>
+      </c>
+      <c r="C249">
+        <v>100</v>
+      </c>
+      <c r="D249">
+        <v>200445</v>
+      </c>
+      <c r="E249" t="s">
+        <v>517</v>
+      </c>
+      <c r="F249" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>519</v>
+      </c>
+      <c r="B250" t="s">
+        <v>520</v>
+      </c>
+      <c r="C250">
+        <v>100</v>
+      </c>
+      <c r="D250">
+        <v>200440</v>
+      </c>
+      <c r="E250" t="s">
+        <v>519</v>
+      </c>
+      <c r="F250" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>521</v>
+      </c>
+      <c r="B251" t="s">
+        <v>522</v>
+      </c>
+      <c r="C251">
+        <v>100</v>
+      </c>
+      <c r="D251">
+        <v>200433</v>
+      </c>
+      <c r="E251" t="s">
+        <v>521</v>
+      </c>
+      <c r="F251" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>523</v>
+      </c>
+      <c r="B252" t="s">
+        <v>524</v>
+      </c>
+      <c r="C252">
+        <v>100</v>
+      </c>
+      <c r="D252">
+        <v>200428</v>
+      </c>
+      <c r="E252" t="s">
+        <v>523</v>
+      </c>
+      <c r="F252" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>525</v>
+      </c>
+      <c r="B253" t="s">
+        <v>526</v>
+      </c>
+      <c r="C253">
+        <v>100</v>
+      </c>
+      <c r="D253">
+        <v>200444</v>
+      </c>
+      <c r="E253" t="s">
+        <v>525</v>
+      </c>
+      <c r="F253" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>527</v>
+      </c>
+      <c r="B254" t="s">
+        <v>528</v>
+      </c>
+      <c r="C254">
+        <v>100</v>
+      </c>
+      <c r="D254">
+        <v>200439</v>
+      </c>
+      <c r="E254" t="s">
+        <v>527</v>
+      </c>
+      <c r="F254" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>529</v>
+      </c>
+      <c r="B255" t="s">
+        <v>530</v>
+      </c>
+      <c r="C255">
+        <v>100</v>
+      </c>
+      <c r="D255">
+        <v>200432</v>
+      </c>
+      <c r="E255" t="s">
+        <v>529</v>
+      </c>
+      <c r="F255" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>531</v>
+      </c>
+      <c r="B256" t="s">
+        <v>532</v>
+      </c>
+      <c r="C256">
+        <v>100</v>
+      </c>
+      <c r="D256">
+        <v>200443</v>
+      </c>
+      <c r="E256" t="s">
+        <v>531</v>
+      </c>
+      <c r="F256" t="s">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
